--- a/res/sueldos-s2.xlsx
+++ b/res/sueldos-s2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lolo\dev\bolciti-excel-analysis\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E87099-A7F6-492F-AA74-A8C3F8F8F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="1440" yWindow="1860" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="R98acc51b580345d4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
   <si>
     <t xml:space="preserve">Empleado: </t>
   </si>
@@ -100,7 +109,7 @@
     <t>MARTINEZ ANGEL EDUARDO</t>
   </si>
   <si>
-    <t xml:space="preserve">JORGE  LUIS LEITES</t>
+    <t>JORGE  LUIS LEITES</t>
   </si>
   <si>
     <t>MARIO AGUSTIN ALGAÑARAZ</t>
@@ -109,22 +118,22 @@
     <t>CABRERA ALEX EDUARDO</t>
   </si>
   <si>
-    <t xml:space="preserve">BRIAN   NAHUEL   SOTO</t>
+    <t>BRIAN   NAHUEL   SOTO</t>
   </si>
   <si>
-    <t xml:space="preserve">SERGIO   DAMIAN  ARRIETA</t>
+    <t>SERGIO   DAMIAN  ARRIETA</t>
   </si>
   <si>
-    <t xml:space="preserve">ROSA  BEATRIZ  DI  PAOLO</t>
+    <t>ROSA  BEATRIZ  DI  PAOLO</t>
   </si>
   <si>
-    <t xml:space="preserve">BRIZUELA  HERNAN</t>
+    <t>BRIZUELA  HERNAN</t>
   </si>
   <si>
-    <t xml:space="preserve">LEONARDO   LEDESMA</t>
+    <t>LEONARDO   LEDESMA</t>
   </si>
   <si>
-    <t xml:space="preserve">ENRIQUE  CORDOBA</t>
+    <t>ENRIQUE  CORDOBA</t>
   </si>
   <si>
     <t>CRISTIAN DARIO BAEZ</t>
@@ -136,7 +145,7 @@
     <t>JAVIER EDUARDO PAZ</t>
   </si>
   <si>
-    <t xml:space="preserve">MATIAS LEONARDO  MORENO</t>
+    <t>MATIAS LEONARDO  MORENO</t>
   </si>
   <si>
     <t/>
@@ -145,12 +154,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\-#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -167,8 +176,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF" tint="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,7 +195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00008B" tint="0"/>
+        <fgColor rgb="FF00008B"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,45 +211,362 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="2" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0"/>
-    <xf numFmtId="0" fontId="1" borderId="2" xfId="0"/>
-    <xf numFmtId="164" fontId="1" borderId="2" xfId="0"/>
-    <xf numFmtId="165" fontId="1" borderId="2" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R272"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -242,22 +574,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -313,7 +645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" s="4">
         <v>3891</v>
       </c>
@@ -369,7 +701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18">
       <c r="A8" s="4">
         <v>3892</v>
       </c>
@@ -425,7 +757,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
         <v>3893</v>
       </c>
@@ -481,7 +813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="4">
         <v>3894</v>
       </c>
@@ -527,7 +859,7 @@
       <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="7">
         <v>457000</v>
       </c>
       <c r="Q10" s="6">
@@ -537,7 +869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="4">
         <v>3895</v>
       </c>
@@ -593,7 +925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="4">
         <v>3896</v>
       </c>
@@ -649,7 +981,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
         <v>3897</v>
       </c>
@@ -705,7 +1037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" s="4">
         <v>3898</v>
       </c>
@@ -761,7 +1093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="A15" s="4">
         <v>3899</v>
       </c>
@@ -817,7 +1149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18">
       <c r="A16" s="4">
         <v>3900</v>
       </c>
@@ -873,7 +1205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" s="4">
         <v>3901</v>
       </c>
@@ -929,7 +1261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18">
       <c r="A18" s="4">
         <v>3902</v>
       </c>
@@ -985,7 +1317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <v>3889</v>
       </c>
@@ -1041,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <v>3904</v>
       </c>
@@ -1097,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18">
       <c r="A21" s="4">
         <v>3890</v>
       </c>
@@ -1153,7 +1485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18">
       <c r="A22" s="4">
         <v>3879</v>
       </c>
@@ -1209,7 +1541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18">
       <c r="A23" s="4">
         <v>3880</v>
       </c>
@@ -1265,7 +1597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18">
       <c r="A24" s="4">
         <v>3881</v>
       </c>
@@ -1321,7 +1653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>3882</v>
       </c>
@@ -1377,7 +1709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18">
       <c r="A26" s="4">
         <v>3883</v>
       </c>
@@ -1433,7 +1765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18">
       <c r="A27" s="4">
         <v>3884</v>
       </c>
@@ -1489,7 +1821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18">
       <c r="A28" s="4">
         <v>3885</v>
       </c>
@@ -1545,7 +1877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18">
       <c r="A29" s="4">
         <v>3886</v>
       </c>
@@ -1601,7 +1933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18">
       <c r="A30" s="4">
         <v>3887</v>
       </c>
@@ -1657,7 +1989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18">
       <c r="A31" s="4">
         <v>3888</v>
       </c>
@@ -1713,7 +2045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18">
       <c r="A32" s="4">
         <v>3903</v>
       </c>
@@ -1769,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:18">
       <c r="A33" s="4">
         <v>3878</v>
       </c>
@@ -1825,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:18">
       <c r="A34" s="4">
         <v>3866</v>
       </c>
@@ -1881,7 +2213,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:18">
       <c r="A35" s="4">
         <v>3867</v>
       </c>
@@ -1937,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:18">
       <c r="A36" s="4">
         <v>3868</v>
       </c>
@@ -1993,7 +2325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:18">
       <c r="A37" s="4">
         <v>3869</v>
       </c>
@@ -2049,7 +2381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:18">
       <c r="A38" s="4">
         <v>3871</v>
       </c>
@@ -2105,7 +2437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:18">
       <c r="A39" s="4">
         <v>3872</v>
       </c>
@@ -2161,7 +2493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:18">
       <c r="A40" s="4">
         <v>3873</v>
       </c>
@@ -2217,7 +2549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:18">
       <c r="A41" s="4">
         <v>3874</v>
       </c>
@@ -2273,7 +2605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:18">
       <c r="A42" s="4">
         <v>3875</v>
       </c>
@@ -2329,7 +2661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:18">
       <c r="A43" s="4">
         <v>3876</v>
       </c>
@@ -2385,7 +2717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:18">
       <c r="A44" s="4">
         <v>3877</v>
       </c>
@@ -2441,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:18">
       <c r="A45" s="4">
         <v>3856</v>
       </c>
@@ -2497,7 +2829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:18">
       <c r="A46" s="4">
         <v>3857</v>
       </c>
@@ -2553,7 +2885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:18">
       <c r="A47" s="4">
         <v>3858</v>
       </c>
@@ -2609,7 +2941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:18">
       <c r="A48" s="4">
         <v>3859</v>
       </c>
@@ -2665,7 +2997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:18">
       <c r="A49" s="4">
         <v>3860</v>
       </c>
@@ -2721,7 +3053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:18">
       <c r="A50" s="4">
         <v>3861</v>
       </c>
@@ -2777,7 +3109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:18">
       <c r="A51" s="4">
         <v>3862</v>
       </c>
@@ -2833,7 +3165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:18">
       <c r="A52" s="4">
         <v>3863</v>
       </c>
@@ -2889,7 +3221,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:18">
       <c r="A53" s="4">
         <v>3864</v>
       </c>
@@ -2945,7 +3277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:18">
       <c r="A54" s="4">
         <v>3865</v>
       </c>
@@ -3001,7 +3333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:18">
       <c r="A55" s="4">
         <v>3844</v>
       </c>
@@ -3057,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:18">
       <c r="A56" s="4">
         <v>3845</v>
       </c>
@@ -3113,7 +3445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:18">
       <c r="A57" s="4">
         <v>3846</v>
       </c>
@@ -3169,7 +3501,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:18">
       <c r="A58" s="4">
         <v>3847</v>
       </c>
@@ -3225,7 +3557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:18">
       <c r="A59" s="4">
         <v>3848</v>
       </c>
@@ -3281,7 +3613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:18">
       <c r="A60" s="4">
         <v>3849</v>
       </c>
@@ -3337,7 +3669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:18">
       <c r="A61" s="4">
         <v>3850</v>
       </c>
@@ -3393,7 +3725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:18">
       <c r="A62" s="4">
         <v>3851</v>
       </c>
@@ -3449,7 +3781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:18">
       <c r="A63" s="4">
         <v>3852</v>
       </c>
@@ -3505,7 +3837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:18">
       <c r="A64" s="4">
         <v>3853</v>
       </c>
@@ -3561,7 +3893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:18">
       <c r="A65" s="4">
         <v>3854</v>
       </c>
@@ -3617,7 +3949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:18">
       <c r="A66" s="4">
         <v>3834</v>
       </c>
@@ -3673,7 +4005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:18">
       <c r="A67" s="4">
         <v>3835</v>
       </c>
@@ -3729,7 +4061,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:18">
       <c r="A68" s="4">
         <v>3836</v>
       </c>
@@ -3785,7 +4117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:18">
       <c r="A69" s="4">
         <v>3837</v>
       </c>
@@ -3841,7 +4173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:18">
       <c r="A70" s="4">
         <v>3838</v>
       </c>
@@ -3897,7 +4229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:18">
       <c r="A71" s="4">
         <v>3839</v>
       </c>
@@ -3953,7 +4285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:18">
       <c r="A72" s="4">
         <v>3840</v>
       </c>
@@ -4009,7 +4341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:18">
       <c r="A73" s="4">
         <v>3841</v>
       </c>
@@ -4065,7 +4397,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:18">
       <c r="A74" s="4">
         <v>3842</v>
       </c>
@@ -4121,7 +4453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:18">
       <c r="A75" s="4">
         <v>3843</v>
       </c>
@@ -4177,7 +4509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:18">
       <c r="A76" s="4">
         <v>3823</v>
       </c>
@@ -4233,7 +4565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:18">
       <c r="A77" s="4">
         <v>3824</v>
       </c>
@@ -4289,7 +4621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:18">
       <c r="A78" s="4">
         <v>3825</v>
       </c>
@@ -4345,7 +4677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:18">
       <c r="A79" s="4">
         <v>3826</v>
       </c>
@@ -4401,7 +4733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:18">
       <c r="A80" s="4">
         <v>3827</v>
       </c>
@@ -4457,7 +4789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:18">
       <c r="A81" s="4">
         <v>3828</v>
       </c>
@@ -4513,7 +4845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:18">
       <c r="A82" s="4">
         <v>3829</v>
       </c>
@@ -4569,7 +4901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:18">
       <c r="A83" s="4">
         <v>3830</v>
       </c>
@@ -4625,7 +4957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:18">
       <c r="A84" s="4">
         <v>3831</v>
       </c>
@@ -4681,7 +5013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:18">
       <c r="A85" s="4">
         <v>3855</v>
       </c>
@@ -4737,7 +5069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:18">
       <c r="A86" s="4">
         <v>3833</v>
       </c>
@@ -4793,7 +5125,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:18">
       <c r="A87" s="4">
         <v>3832</v>
       </c>
@@ -4849,7 +5181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:18">
       <c r="A88" s="4">
         <v>3811</v>
       </c>
@@ -4905,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:18">
       <c r="A89" s="4">
         <v>3812</v>
       </c>
@@ -4961,7 +5293,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:18">
       <c r="A90" s="4">
         <v>3813</v>
       </c>
@@ -5017,7 +5349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:18">
       <c r="A91" s="4">
         <v>3814</v>
       </c>
@@ -5073,7 +5405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:18">
       <c r="A92" s="4">
         <v>3815</v>
       </c>
@@ -5129,7 +5461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:18">
       <c r="A93" s="4">
         <v>3816</v>
       </c>
@@ -5185,7 +5517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:18">
       <c r="A94" s="4">
         <v>3817</v>
       </c>
@@ -5241,7 +5573,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:18">
       <c r="A95" s="4">
         <v>3818</v>
       </c>
@@ -5297,7 +5629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:18">
       <c r="A96" s="4">
         <v>3819</v>
       </c>
@@ -5353,7 +5685,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:18">
       <c r="A97" s="4">
         <v>3820</v>
       </c>
@@ -5409,7 +5741,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:18">
       <c r="A98" s="4">
         <v>3821</v>
       </c>
@@ -5465,7 +5797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:18">
       <c r="A99" s="4">
         <v>3822</v>
       </c>
@@ -5521,7 +5853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:18">
       <c r="A100" s="4">
         <v>3810</v>
       </c>
@@ -5577,7 +5909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:18">
       <c r="A101" s="4">
         <v>3809</v>
       </c>
@@ -5633,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:18">
       <c r="A102" s="4">
         <v>3795</v>
       </c>
@@ -5689,7 +6021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:18">
       <c r="A103" s="4">
         <v>3796</v>
       </c>
@@ -5745,7 +6077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:18">
       <c r="A104" s="4">
         <v>3797</v>
       </c>
@@ -5801,7 +6133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:18">
       <c r="A105" s="4">
         <v>3798</v>
       </c>
@@ -5857,7 +6189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:18">
       <c r="A106" s="4">
         <v>3799</v>
       </c>
@@ -5913,7 +6245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:18">
       <c r="A107" s="4">
         <v>3800</v>
       </c>
@@ -5969,7 +6301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:18">
       <c r="A108" s="4">
         <v>3801</v>
       </c>
@@ -6025,7 +6357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:18">
       <c r="A109" s="4">
         <v>3802</v>
       </c>
@@ -6081,7 +6413,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:18">
       <c r="A110" s="4">
         <v>3803</v>
       </c>
@@ -6137,7 +6469,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:18">
       <c r="A111" s="4">
         <v>3804</v>
       </c>
@@ -6193,7 +6525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:18">
       <c r="A112" s="4">
         <v>3805</v>
       </c>
@@ -6249,7 +6581,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:18">
       <c r="A113" s="4">
         <v>3806</v>
       </c>
@@ -6305,7 +6637,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:18">
       <c r="A114" s="4">
         <v>3807</v>
       </c>
@@ -6361,7 +6693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:18">
       <c r="A115" s="4">
         <v>3808</v>
       </c>
@@ -6417,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:18">
       <c r="A116" s="4">
         <v>3782</v>
       </c>
@@ -6473,7 +6805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:18">
       <c r="A117" s="4">
         <v>3783</v>
       </c>
@@ -6529,7 +6861,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:18">
       <c r="A118" s="4">
         <v>3784</v>
       </c>
@@ -6585,7 +6917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:18">
       <c r="A119" s="4">
         <v>3785</v>
       </c>
@@ -6641,7 +6973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:18">
       <c r="A120" s="4">
         <v>3786</v>
       </c>
@@ -6697,7 +7029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:18">
       <c r="A121" s="4">
         <v>3787</v>
       </c>
@@ -6753,7 +7085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:18">
       <c r="A122" s="4">
         <v>3788</v>
       </c>
@@ -6809,7 +7141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:18">
       <c r="A123" s="4">
         <v>3789</v>
       </c>
@@ -6865,7 +7197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:18">
       <c r="A124" s="4">
         <v>3790</v>
       </c>
@@ -6921,7 +7253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:18">
       <c r="A125" s="4">
         <v>3791</v>
       </c>
@@ -6977,7 +7309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:18">
       <c r="A126" s="4">
         <v>3792</v>
       </c>
@@ -7033,7 +7365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:18">
       <c r="A127" s="4">
         <v>3793</v>
       </c>
@@ -7089,7 +7421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:18">
       <c r="A128" s="4">
         <v>3794</v>
       </c>
@@ -7145,7 +7477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:18">
       <c r="A129" s="4">
         <v>3771</v>
       </c>
@@ -7201,7 +7533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:18">
       <c r="A130" s="4">
         <v>3772</v>
       </c>
@@ -7257,7 +7589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:18">
       <c r="A131" s="4">
         <v>3773</v>
       </c>
@@ -7313,7 +7645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:18">
       <c r="A132" s="4">
         <v>3774</v>
       </c>
@@ -7369,7 +7701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:18">
       <c r="A133" s="4">
         <v>3775</v>
       </c>
@@ -7425,7 +7757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:18">
       <c r="A134" s="4">
         <v>3776</v>
       </c>
@@ -7481,7 +7813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:18">
       <c r="A135" s="4">
         <v>3777</v>
       </c>
@@ -7537,7 +7869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:18">
       <c r="A136" s="4">
         <v>3778</v>
       </c>
@@ -7593,7 +7925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:18">
       <c r="A137" s="4">
         <v>3779</v>
       </c>
@@ -7649,7 +7981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:18">
       <c r="A138" s="4">
         <v>3780</v>
       </c>
@@ -7705,7 +8037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:18">
       <c r="A139" s="4">
         <v>3781</v>
       </c>
@@ -7761,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:18">
       <c r="A140" s="4">
         <v>3758</v>
       </c>
@@ -7817,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:18">
       <c r="A141" s="4">
         <v>3756</v>
       </c>
@@ -7873,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:18">
       <c r="A142" s="4">
         <v>3762</v>
       </c>
@@ -7929,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:18">
       <c r="A143" s="4">
         <v>3763</v>
       </c>
@@ -7985,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:18">
       <c r="A144" s="4">
         <v>3764</v>
       </c>
@@ -8041,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:18">
       <c r="A145" s="4">
         <v>3765</v>
       </c>
@@ -8097,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:18">
       <c r="A146" s="4">
         <v>3766</v>
       </c>
@@ -8153,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:18">
       <c r="A147" s="4">
         <v>3767</v>
       </c>
@@ -8209,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:18">
       <c r="A148" s="4">
         <v>3768</v>
       </c>
@@ -8265,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:18">
       <c r="A149" s="4">
         <v>3769</v>
       </c>
@@ -8321,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:18">
       <c r="A150" s="4">
         <v>3770</v>
       </c>
@@ -8377,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:18">
       <c r="A151" s="4">
         <v>3757</v>
       </c>
@@ -8433,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:18">
       <c r="A152" s="4">
         <v>3759</v>
       </c>
@@ -8489,7 +8821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:18">
       <c r="A153" s="4">
         <v>3760</v>
       </c>
@@ -8545,7 +8877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:18">
       <c r="A154" s="4">
         <v>3761</v>
       </c>
@@ -8601,7 +8933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:18">
       <c r="A155" s="4">
         <v>3749</v>
       </c>
@@ -8657,7 +8989,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:18">
       <c r="A156" s="4">
         <v>3750</v>
       </c>
@@ -8713,7 +9045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:18">
       <c r="A157" s="4">
         <v>3751</v>
       </c>
@@ -8769,7 +9101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:18">
       <c r="A158" s="4">
         <v>3752</v>
       </c>
@@ -8825,7 +9157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:18">
       <c r="A159" s="4">
         <v>3753</v>
       </c>
@@ -8881,7 +9213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:18">
       <c r="A160" s="4">
         <v>3754</v>
       </c>
@@ -8937,7 +9269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:18">
       <c r="A161" s="4">
         <v>3755</v>
       </c>
@@ -8993,7 +9325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:18">
       <c r="A162" s="4">
         <v>3739</v>
       </c>
@@ -9049,7 +9381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:18">
       <c r="A163" s="4">
         <v>3740</v>
       </c>
@@ -9105,7 +9437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:18">
       <c r="A164" s="4">
         <v>3741</v>
       </c>
@@ -9161,7 +9493,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:18">
       <c r="A165" s="4">
         <v>3742</v>
       </c>
@@ -9217,7 +9549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:18">
       <c r="A166" s="4">
         <v>3743</v>
       </c>
@@ -9273,7 +9605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:18">
       <c r="A167" s="4">
         <v>3744</v>
       </c>
@@ -9329,7 +9661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:18">
       <c r="A168" s="4">
         <v>3745</v>
       </c>
@@ -9385,7 +9717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:18">
       <c r="A169" s="4">
         <v>3746</v>
       </c>
@@ -9441,7 +9773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:18">
       <c r="A170" s="4">
         <v>3747</v>
       </c>
@@ -9497,7 +9829,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:18">
       <c r="A171" s="4">
         <v>3748</v>
       </c>
@@ -9553,7 +9885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:18">
       <c r="A172" s="4">
         <v>3728</v>
       </c>
@@ -9609,7 +9941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:18">
       <c r="A173" s="4">
         <v>3729</v>
       </c>
@@ -9665,7 +9997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:18">
       <c r="A174" s="4">
         <v>3730</v>
       </c>
@@ -9721,7 +10053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:18">
       <c r="A175" s="4">
         <v>3731</v>
       </c>
@@ -9777,7 +10109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:18">
       <c r="A176" s="4">
         <v>3732</v>
       </c>
@@ -9833,7 +10165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:18">
       <c r="A177" s="4">
         <v>3733</v>
       </c>
@@ -9889,7 +10221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:18">
       <c r="A178" s="4">
         <v>3734</v>
       </c>
@@ -9945,7 +10277,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:18">
       <c r="A179" s="4">
         <v>3735</v>
       </c>
@@ -10001,7 +10333,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:18">
       <c r="A180" s="4">
         <v>3736</v>
       </c>
@@ -10057,7 +10389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:18">
       <c r="A181" s="4">
         <v>3737</v>
       </c>
@@ -10113,7 +10445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:18">
       <c r="A182" s="4">
         <v>3738</v>
       </c>
@@ -10169,7 +10501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:18">
       <c r="A183" s="4">
         <v>3716</v>
       </c>
@@ -10225,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:18">
       <c r="A184" s="4">
         <v>3717</v>
       </c>
@@ -10281,7 +10613,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:18">
       <c r="A185" s="4">
         <v>3718</v>
       </c>
@@ -10337,7 +10669,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:18">
       <c r="A186" s="4">
         <v>3719</v>
       </c>
@@ -10393,7 +10725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:18">
       <c r="A187" s="4">
         <v>3720</v>
       </c>
@@ -10449,7 +10781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:18">
       <c r="A188" s="4">
         <v>3721</v>
       </c>
@@ -10505,7 +10837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:18">
       <c r="A189" s="4">
         <v>3722</v>
       </c>
@@ -10561,7 +10893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:18">
       <c r="A190" s="4">
         <v>3723</v>
       </c>
@@ -10617,7 +10949,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:18">
       <c r="A191" s="4">
         <v>3724</v>
       </c>
@@ -10673,7 +11005,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:18">
       <c r="A192" s="4">
         <v>3725</v>
       </c>
@@ -10729,7 +11061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:18">
       <c r="A193" s="4">
         <v>3726</v>
       </c>
@@ -10785,7 +11117,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:18">
       <c r="A194" s="4">
         <v>3727</v>
       </c>
@@ -10841,7 +11173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:18">
       <c r="A195" s="4">
         <v>3706</v>
       </c>
@@ -10897,7 +11229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:18">
       <c r="A196" s="4">
         <v>3707</v>
       </c>
@@ -10953,7 +11285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:18">
       <c r="A197" s="4">
         <v>3708</v>
       </c>
@@ -11009,7 +11341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:18">
       <c r="A198" s="4">
         <v>3709</v>
       </c>
@@ -11065,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:18">
       <c r="A199" s="4">
         <v>3710</v>
       </c>
@@ -11121,7 +11453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:18">
       <c r="A200" s="4">
         <v>3711</v>
       </c>
@@ -11177,7 +11509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:18">
       <c r="A201" s="4">
         <v>3712</v>
       </c>
@@ -11233,7 +11565,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:18">
       <c r="A202" s="4">
         <v>3713</v>
       </c>
@@ -11289,7 +11621,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:18">
       <c r="A203" s="4">
         <v>3714</v>
       </c>
@@ -11345,7 +11677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:18">
       <c r="A204" s="4">
         <v>3715</v>
       </c>
@@ -11401,7 +11733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:18">
       <c r="A205" s="4">
         <v>3695</v>
       </c>
@@ -11457,7 +11789,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:18">
       <c r="A206" s="4">
         <v>3696</v>
       </c>
@@ -11513,7 +11845,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:18">
       <c r="A207" s="4">
         <v>3697</v>
       </c>
@@ -11569,7 +11901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:18">
       <c r="A208" s="4">
         <v>3698</v>
       </c>
@@ -11625,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:18">
       <c r="A209" s="4">
         <v>3699</v>
       </c>
@@ -11681,7 +12013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:18">
       <c r="A210" s="4">
         <v>3700</v>
       </c>
@@ -11737,7 +12069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:18">
       <c r="A211" s="4">
         <v>3701</v>
       </c>
@@ -11793,7 +12125,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:18">
       <c r="A212" s="4">
         <v>3702</v>
       </c>
@@ -11849,7 +12181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:18">
       <c r="A213" s="4">
         <v>3703</v>
       </c>
@@ -11905,7 +12237,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:18">
       <c r="A214" s="4">
         <v>3704</v>
       </c>
@@ -11961,7 +12293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:18">
       <c r="A215" s="4">
         <v>3705</v>
       </c>
@@ -12017,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:18">
       <c r="A216" s="4">
         <v>3684</v>
       </c>
@@ -12073,7 +12405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:18">
       <c r="A217" s="4">
         <v>3685</v>
       </c>
@@ -12129,7 +12461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:18">
       <c r="A218" s="4">
         <v>3686</v>
       </c>
@@ -12185,7 +12517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:18">
       <c r="A219" s="4">
         <v>3688</v>
       </c>
@@ -12241,7 +12573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:18">
       <c r="A220" s="4">
         <v>3689</v>
       </c>
@@ -12297,7 +12629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:18">
       <c r="A221" s="4">
         <v>3690</v>
       </c>
@@ -12353,7 +12685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:18">
       <c r="A222" s="4">
         <v>3691</v>
       </c>
@@ -12409,7 +12741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:18">
       <c r="A223" s="4">
         <v>3692</v>
       </c>
@@ -12465,7 +12797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:18">
       <c r="A224" s="4">
         <v>3693</v>
       </c>
@@ -12521,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:18">
       <c r="A225" s="4">
         <v>3694</v>
       </c>
@@ -12577,7 +12909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:18">
       <c r="A226" s="4">
         <v>3674</v>
       </c>
@@ -12633,7 +12965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:18">
       <c r="A227" s="4">
         <v>3675</v>
       </c>
@@ -12689,7 +13021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:18">
       <c r="A228" s="4">
         <v>3676</v>
       </c>
@@ -12745,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:18">
       <c r="A229" s="4">
         <v>3677</v>
       </c>
@@ -12801,7 +13133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:18">
       <c r="A230" s="4">
         <v>3678</v>
       </c>
@@ -12857,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:18">
       <c r="A231" s="4">
         <v>3679</v>
       </c>
@@ -12913,7 +13245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:18">
       <c r="A232" s="4">
         <v>3680</v>
       </c>
@@ -12969,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:18">
       <c r="A233" s="4">
         <v>3681</v>
       </c>
@@ -13025,7 +13357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:18">
       <c r="A234" s="4">
         <v>3682</v>
       </c>
@@ -13081,7 +13413,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:18">
       <c r="A235" s="4">
         <v>3683</v>
       </c>
@@ -13137,7 +13469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:18">
       <c r="A236" s="4">
         <v>3667</v>
       </c>
@@ -13193,7 +13525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:18">
       <c r="A237" s="4">
         <v>3668</v>
       </c>
@@ -13249,7 +13581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:18">
       <c r="A238" s="4">
         <v>3669</v>
       </c>
@@ -13305,7 +13637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:18">
       <c r="A239" s="4">
         <v>3670</v>
       </c>
@@ -13361,7 +13693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:18">
       <c r="A240" s="4">
         <v>3671</v>
       </c>
@@ -13417,7 +13749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:18">
       <c r="A241" s="4">
         <v>3672</v>
       </c>
@@ -13473,7 +13805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:18">
       <c r="A242" s="4">
         <v>3673</v>
       </c>
@@ -13529,7 +13861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:18">
       <c r="A243" s="4">
         <v>3652</v>
       </c>
@@ -13585,7 +13917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:18">
       <c r="A244" s="4">
         <v>3653</v>
       </c>
@@ -13641,7 +13973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:18">
       <c r="A245" s="4">
         <v>3654</v>
       </c>
@@ -13697,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:18">
       <c r="A246" s="4">
         <v>3655</v>
       </c>
@@ -13753,7 +14085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:18">
       <c r="A247" s="4">
         <v>3656</v>
       </c>
@@ -13809,7 +14141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:18">
       <c r="A248" s="4">
         <v>3657</v>
       </c>
@@ -13865,7 +14197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:18">
       <c r="A249" s="4">
         <v>3658</v>
       </c>
@@ -13921,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:18">
       <c r="A250" s="4">
         <v>3659</v>
       </c>
@@ -13977,7 +14309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:18">
       <c r="A251" s="4">
         <v>3660</v>
       </c>
@@ -14033,7 +14365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:18">
       <c r="A252" s="4">
         <v>3661</v>
       </c>
@@ -14089,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:18">
       <c r="A253" s="4">
         <v>3662</v>
       </c>
@@ -14145,7 +14477,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:18">
       <c r="A254" s="4">
         <v>3663</v>
       </c>
@@ -14201,7 +14533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:18">
       <c r="A255" s="4">
         <v>3664</v>
       </c>
@@ -14257,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:18">
       <c r="A256" s="4">
         <v>3665</v>
       </c>
@@ -14313,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:18">
       <c r="A257" s="4">
         <v>3666</v>
       </c>
@@ -14369,7 +14701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:18">
       <c r="A258" s="4">
         <v>3638</v>
       </c>
@@ -14425,7 +14757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:18">
       <c r="A259" s="4">
         <v>3650</v>
       </c>
@@ -14481,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:18">
       <c r="A260" s="4">
         <v>3639</v>
       </c>
@@ -14537,7 +14869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:18">
       <c r="A261" s="4">
         <v>3640</v>
       </c>
@@ -14593,7 +14925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:18">
       <c r="A262" s="4">
         <v>3641</v>
       </c>
@@ -14649,7 +14981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:18">
       <c r="A263" s="4">
         <v>3642</v>
       </c>
@@ -14705,7 +15037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:18">
       <c r="A264" s="4">
         <v>3643</v>
       </c>
@@ -14761,7 +15093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:18">
       <c r="A265" s="4">
         <v>3644</v>
       </c>
@@ -14817,7 +15149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:18">
       <c r="A266" s="4">
         <v>3645</v>
       </c>
@@ -14873,7 +15205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:18">
       <c r="A267" s="4">
         <v>3646</v>
       </c>
@@ -14929,7 +15261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:18">
       <c r="A268" s="4">
         <v>3647</v>
       </c>
@@ -14985,7 +15317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:18">
       <c r="A269" s="4">
         <v>3648</v>
       </c>
@@ -15041,7 +15373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:18">
       <c r="A270" s="4">
         <v>3649</v>
       </c>
@@ -15097,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:18">
       <c r="A271" s="4">
         <v>3620</v>
       </c>
@@ -15153,7 +15485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:18">
       <c r="A272" s="4" t="s">
         <v>42</v>
       </c>
@@ -15210,6 +15542,6 @@
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/res/sueldos-s2.xlsx
+++ b/res/sueldos-s2.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="R1936eca82d254846"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="Rb02670cad4f54ede"/>
   </sheets>
 </workbook>
 </file>

--- a/res/sueldos-s2.xlsx
+++ b/res/sueldos-s2.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="Rb02670cad4f54ede"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="R9f2c14aee85345fb"/>
   </sheets>
 </workbook>
 </file>

--- a/res/sueldos-s2.xlsx
+++ b/res/sueldos-s2.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="R9f2c14aee85345fb"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="Rc12581cb730247e5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Empleado: </t>
   </si>
@@ -19,7 +19,7 @@
     <t>Sueldos</t>
   </si>
   <si>
-    <t>Fecha Desde: 01/01/2025</t>
+    <t>Fecha Desde: 01/06/2025</t>
   </si>
   <si>
     <t>Fecha Hasta: 31/12/2025</t>
@@ -82,6 +82,9 @@
     <t>HS Trabajadas</t>
   </si>
   <si>
+    <t xml:space="preserve">BRIZUELA  HERNAN</t>
+  </si>
+  <si>
     <t>CARLOS GUSTAVO CAPPONI</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t xml:space="preserve">ROSA  BEATRIZ  DI  PAOLO</t>
   </si>
   <si>
-    <t xml:space="preserve">BRIZUELA  HERNAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">LEONARDO   LEDESMA</t>
   </si>
   <si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>COLINA POLANCO ALAIN ANTONIO</t>
-  </si>
-  <si>
-    <t>JAVIER EDUARDO PAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATIAS LEONARDO  MORENO</t>
   </si>
   <si>
     <t/>
@@ -228,7 +222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -315,10 +309,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="B7" s="4">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C7" s="5">
         <v>45991</v>
@@ -327,7 +321,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="6">
-        <v>576000</v>
+        <v>600000</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -360,21 +354,21 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>576000</v>
+        <v>600000</v>
       </c>
       <c r="Q7" s="6">
         <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="B8" s="4">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C8" s="5">
         <v>45991</v>
@@ -383,7 +377,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="6">
-        <v>615000</v>
+        <v>576000</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -416,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>615000</v>
+        <v>576000</v>
       </c>
       <c r="Q8" s="6">
         <v>0</v>
@@ -427,10 +421,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="B9" s="4">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C9" s="5">
         <v>45991</v>
@@ -439,7 +433,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="6">
-        <v>525000</v>
+        <v>615000</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -472,21 +466,21 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>525000</v>
+        <v>615000</v>
       </c>
       <c r="Q9" s="6">
         <v>0</v>
       </c>
       <c r="R9" s="4">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="B10" s="4">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C10" s="5">
         <v>45991</v>
@@ -495,7 +489,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="6">
-        <v>319000</v>
+        <v>525000</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -507,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <v>138000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -528,21 +522,21 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>457000</v>
+        <v>525000</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="B11" s="4">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C11" s="5">
         <v>45991</v>
@@ -551,7 +545,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="6">
-        <v>804000</v>
+        <v>319000</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -563,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>90000</v>
+        <v>138000</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
@@ -584,21 +578,21 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>894000</v>
+        <v>457000</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="B12" s="4">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C12" s="5">
         <v>45991</v>
@@ -607,7 +601,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="6">
-        <v>1107000</v>
+        <v>804000</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -619,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
@@ -640,21 +634,21 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>1107000</v>
+        <v>894000</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B13" s="4">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C13" s="5">
         <v>45991</v>
@@ -663,7 +657,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="6">
-        <v>660000</v>
+        <v>1107000</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -696,21 +690,21 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>660000</v>
+        <v>1107000</v>
       </c>
       <c r="Q13" s="6">
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="B14" s="4">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C14" s="5">
         <v>45991</v>
@@ -719,7 +713,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="6">
-        <v>456000</v>
+        <v>660000</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -752,21 +746,21 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>456000</v>
+        <v>660000</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B15" s="4">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C15" s="5">
         <v>45991</v>
@@ -775,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="6">
-        <v>816000</v>
+        <v>456000</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -808,21 +802,21 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>816000</v>
+        <v>456000</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="B16" s="4">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C16" s="5">
         <v>45991</v>
@@ -831,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="6">
-        <v>518000</v>
+        <v>816000</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -864,21 +858,21 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>518000</v>
+        <v>816000</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="B17" s="4">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C17" s="5">
         <v>45991</v>
@@ -887,7 +881,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="6">
-        <v>600000</v>
+        <v>518000</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -920,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>600000</v>
+        <v>518000</v>
       </c>
       <c r="Q17" s="6">
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="B18" s="4">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C18" s="5">
         <v>45991</v>
@@ -943,7 +937,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="6">
-        <v>525000</v>
+        <v>600000</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -976,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>525000</v>
+        <v>600000</v>
       </c>
       <c r="Q18" s="6">
         <v>0</v>
       </c>
       <c r="R18" s="4">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4">
-        <v>3889</v>
+        <v>3902</v>
       </c>
       <c r="B19" s="4">
-        <v>1912</v>
+        <v>1925</v>
       </c>
       <c r="C19" s="5">
         <v>45991</v>
@@ -999,7 +993,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="6">
-        <v>600000</v>
+        <v>525000</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -1032,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>600000</v>
+        <v>525000</v>
       </c>
       <c r="Q19" s="6">
         <v>0</v>
       </c>
       <c r="R19" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1046,7 @@
         <v>45989</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="6">
         <v>418000</v>
@@ -1108,7 +1102,7 @@
         <v>45976</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6">
         <v>391000</v>
@@ -1164,7 +1158,7 @@
         <v>45976</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6">
         <v>476000</v>
@@ -1220,7 +1214,7 @@
         <v>45976</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="6">
         <v>410000</v>
@@ -1276,7 +1270,7 @@
         <v>45976</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="6">
         <v>555000</v>
@@ -1332,7 +1326,7 @@
         <v>45976</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" s="6">
         <v>400000</v>
@@ -1388,7 +1382,7 @@
         <v>45976</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="6">
         <v>320000</v>
@@ -1444,7 +1438,7 @@
         <v>45976</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="6">
         <v>391000</v>
@@ -1500,7 +1494,7 @@
         <v>45976</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="6">
         <v>558000</v>
@@ -1556,7 +1550,7 @@
         <v>45976</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="6">
         <v>790000</v>
@@ -1612,7 +1606,7 @@
         <v>45976</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" s="6">
         <v>885000</v>
@@ -1668,7 +1662,7 @@
         <v>45976</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E31" s="6">
         <v>300000</v>
@@ -1724,7 +1718,7 @@
         <v>45975</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="6">
         <v>478000</v>
@@ -1780,7 +1774,7 @@
         <v>45961</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33" s="6">
         <v>473000</v>
@@ -1836,7 +1830,7 @@
         <v>45961</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="6">
         <v>570000</v>
@@ -1892,7 +1886,7 @@
         <v>45961</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="6">
         <v>540000</v>
@@ -1948,7 +1942,7 @@
         <v>45961</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36" s="6">
         <v>675100</v>
@@ -2004,7 +1998,7 @@
         <v>45961</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="6">
         <v>473000</v>
@@ -2060,7 +2054,7 @@
         <v>45961</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E38" s="6">
         <v>536000</v>
@@ -2116,7 +2110,7 @@
         <v>45961</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" s="6">
         <v>676000</v>
@@ -2172,7 +2166,7 @@
         <v>45961</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E40" s="6">
         <v>1300000</v>
@@ -2228,7 +2222,7 @@
         <v>45961</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41" s="6">
         <v>659000</v>
@@ -2284,7 +2278,7 @@
         <v>45961</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E42" s="6">
         <v>566000</v>
@@ -2340,7 +2334,7 @@
         <v>45961</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43" s="6">
         <v>430000</v>
@@ -2396,7 +2390,7 @@
         <v>45945</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="6">
         <v>413000</v>
@@ -2452,7 +2446,7 @@
         <v>45945</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E45" s="6">
         <v>570000</v>
@@ -2508,7 +2502,7 @@
         <v>45945</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="6">
         <v>565000</v>
@@ -2564,7 +2558,7 @@
         <v>45945</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" s="6">
         <v>440000</v>
@@ -2620,7 +2614,7 @@
         <v>45945</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" s="6">
         <v>394000</v>
@@ -2676,7 +2670,7 @@
         <v>45945</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E49" s="6">
         <v>355000</v>
@@ -2732,7 +2726,7 @@
         <v>45945</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" s="6">
         <v>529500</v>
@@ -2788,7 +2782,7 @@
         <v>45945</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" s="6">
         <v>564000</v>
@@ -2844,7 +2838,7 @@
         <v>45945</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52" s="6">
         <v>1065000</v>
@@ -2900,7 +2894,7 @@
         <v>45945</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" s="6">
         <v>809200</v>
@@ -2956,7 +2950,7 @@
         <v>45945</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E54" s="6">
         <v>652000</v>
@@ -3012,7 +3006,7 @@
         <v>45930</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E55" s="6">
         <v>470000</v>
@@ -3068,7 +3062,7 @@
         <v>45930</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E56" s="6">
         <v>670000</v>
@@ -3124,7 +3118,7 @@
         <v>45930</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57" s="6">
         <v>565000</v>
@@ -3180,7 +3174,7 @@
         <v>45930</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E58" s="6">
         <v>500300</v>
@@ -3236,7 +3230,7 @@
         <v>45930</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" s="6">
         <v>403000</v>
@@ -3292,7 +3286,7 @@
         <v>45930</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E60" s="6">
         <v>387600</v>
@@ -3348,7 +3342,7 @@
         <v>45930</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E61" s="6">
         <v>483650</v>
@@ -3404,7 +3398,7 @@
         <v>45930</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E62" s="6">
         <v>620500</v>
@@ -3460,7 +3454,7 @@
         <v>45930</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E63" s="6">
         <v>1064000</v>
@@ -3516,7 +3510,7 @@
         <v>45930</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" s="6">
         <v>903000</v>
@@ -3572,7 +3566,7 @@
         <v>45930</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E65" s="6">
         <v>435000</v>
@@ -3628,7 +3622,7 @@
         <v>45915</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E66" s="6">
         <v>556000</v>
@@ -3684,7 +3678,7 @@
         <v>45915</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E67" s="6">
         <v>550000</v>
@@ -3740,7 +3734,7 @@
         <v>45915</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68" s="6">
         <v>308000</v>
@@ -3796,7 +3790,7 @@
         <v>45915</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E69" s="6">
         <v>367000</v>
@@ -3852,7 +3846,7 @@
         <v>45915</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" s="6">
         <v>357300</v>
@@ -3908,7 +3902,7 @@
         <v>45915</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" s="6">
         <v>398000</v>
@@ -3964,7 +3958,7 @@
         <v>45915</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E72" s="6">
         <v>863000</v>
@@ -4020,7 +4014,7 @@
         <v>45915</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E73" s="6">
         <v>612000</v>
@@ -4076,7 +4070,7 @@
         <v>45915</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E74" s="6">
         <v>450000</v>
@@ -4132,7 +4126,7 @@
         <v>45915</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E75" s="6">
         <v>430000</v>
@@ -4188,7 +4182,7 @@
         <v>45900</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E76" s="6">
         <v>601000</v>
@@ -4244,7 +4238,7 @@
         <v>45900</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E77" s="6">
         <v>595000</v>
@@ -4300,7 +4294,7 @@
         <v>45900</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E78" s="6">
         <v>394700</v>
@@ -4356,7 +4350,7 @@
         <v>45900</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E79" s="6">
         <v>454000</v>
@@ -4412,7 +4406,7 @@
         <v>45900</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E80" s="6">
         <v>357000</v>
@@ -4468,7 +4462,7 @@
         <v>45900</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E81" s="6">
         <v>549300</v>
@@ -4524,7 +4518,7 @@
         <v>45900</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E82" s="6">
         <v>491400</v>
@@ -4580,7 +4574,7 @@
         <v>45900</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E83" s="6">
         <v>1048000</v>
@@ -4636,7 +4630,7 @@
         <v>45900</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E84" s="6">
         <v>618000</v>
@@ -4692,7 +4686,7 @@
         <v>45900</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E85" s="6">
         <v>402000</v>
@@ -4860,7 +4854,7 @@
         <v>45889</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E88" s="6">
         <v>402000</v>
@@ -4916,7 +4910,7 @@
         <v>45884</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E89" s="6">
         <v>535000</v>
@@ -4972,7 +4966,7 @@
         <v>45884</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E90" s="6">
         <v>384200</v>
@@ -5084,7 +5078,7 @@
         <v>45884</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E92" s="6">
         <v>367000</v>
@@ -5140,7 +5134,7 @@
         <v>45884</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E93" s="6">
         <v>427500</v>
@@ -5196,7 +5190,7 @@
         <v>45884</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E94" s="6">
         <v>581200</v>
@@ -5252,7 +5246,7 @@
         <v>45884</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E95" s="6">
         <v>932400</v>
@@ -5308,7 +5302,7 @@
         <v>45884</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E96" s="6">
         <v>625000</v>
@@ -5364,7 +5358,7 @@
         <v>45884</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E97" s="6">
         <v>461000</v>
@@ -5532,7 +5526,7 @@
         <v>45884</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E100" s="6">
         <v>556000</v>
@@ -5588,7 +5582,7 @@
         <v>45869</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E101" s="6">
         <v>398000</v>
@@ -5644,7 +5638,7 @@
         <v>45869</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E102" s="6">
         <v>545000</v>
@@ -5700,7 +5694,7 @@
         <v>45869</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E103" s="6">
         <v>530000</v>
@@ -5756,7 +5750,7 @@
         <v>45869</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E104" s="6">
         <v>419000</v>
@@ -5812,7 +5806,7 @@
         <v>45869</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E105" s="6">
         <v>135000</v>
@@ -5868,7 +5862,7 @@
         <v>45869</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E106" s="6">
         <v>446100</v>
@@ -5924,7 +5918,7 @@
         <v>45869</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E107" s="6">
         <v>676400</v>
@@ -5980,7 +5974,7 @@
         <v>45869</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E108" s="6">
         <v>579200</v>
@@ -6036,7 +6030,7 @@
         <v>45869</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E109" s="6">
         <v>1362000</v>
@@ -6092,7 +6086,7 @@
         <v>45869</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E110" s="6">
         <v>713900</v>
@@ -6148,7 +6142,7 @@
         <v>45869</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E111" s="6">
         <v>450000</v>
@@ -6372,7 +6366,7 @@
         <v>45861</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E115" s="6">
         <v>398000</v>
@@ -6428,7 +6422,7 @@
         <v>45853</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E116" s="6">
         <v>545000</v>
@@ -6484,7 +6478,7 @@
         <v>45853</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E117" s="6">
         <v>530000</v>
@@ -6540,7 +6534,7 @@
         <v>45853</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E118" s="6">
         <v>511000</v>
@@ -6596,7 +6590,7 @@
         <v>45853</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E119" s="6">
         <v>218000</v>
@@ -6708,7 +6702,7 @@
         <v>45853</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E121" s="6">
         <v>563000</v>
@@ -6764,7 +6758,7 @@
         <v>45853</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E122" s="6">
         <v>591330</v>
@@ -6820,7 +6814,7 @@
         <v>45853</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E123" s="6">
         <v>283215</v>
@@ -6876,7 +6870,7 @@
         <v>45853</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E124" s="6">
         <v>1184000</v>
@@ -6932,7 +6926,7 @@
         <v>45853</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E125" s="6">
         <v>793000</v>
@@ -6988,7 +6982,7 @@
         <v>45853</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E126" s="6">
         <v>489000</v>
@@ -7156,7 +7150,7 @@
         <v>45838</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E129" s="6">
         <v>555400</v>
@@ -7212,7 +7206,7 @@
         <v>45838</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E130" s="6">
         <v>564200</v>
@@ -7268,7 +7262,7 @@
         <v>45838</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E131" s="6">
         <v>344000</v>
@@ -7324,7 +7318,7 @@
         <v>45838</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E132" s="6">
         <v>352282</v>
@@ -7380,7 +7374,7 @@
         <v>45838</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E133" s="6">
         <v>398800</v>
@@ -7436,7 +7430,7 @@
         <v>45838</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E134" s="6">
         <v>466200</v>
@@ -7492,7 +7486,7 @@
         <v>45838</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E135" s="6">
         <v>1011200</v>
@@ -7548,7 +7542,7 @@
         <v>45838</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E136" s="6">
         <v>595600</v>
@@ -7660,7 +7654,7 @@
         <v>45838</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E138" s="6">
         <v>425800</v>
@@ -7716,7 +7710,7 @@
         <v>45838</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E139" s="6">
         <v>780000</v>
@@ -7819,16 +7813,16 @@
     </row>
     <row r="141">
       <c r="A141" s="4">
-        <v>3756</v>
+        <v>3762</v>
       </c>
       <c r="B141" s="4">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="C141" s="5">
         <v>45828</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E141" s="6">
         <v>0</v>
@@ -7840,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="H141" s="6">
-        <v>380100</v>
+        <v>553000</v>
       </c>
       <c r="I141" s="6">
         <v>0</v>
@@ -7864,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="6">
-        <v>380100</v>
+        <v>553000</v>
       </c>
       <c r="Q141" s="6">
         <v>0</v>
@@ -7875,16 +7869,16 @@
     </row>
     <row r="142">
       <c r="A142" s="4">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="B142" s="4">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C142" s="5">
         <v>45828</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E142" s="6">
         <v>0</v>
@@ -7896,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="H142" s="6">
-        <v>553000</v>
+        <v>531000</v>
       </c>
       <c r="I142" s="6">
         <v>0</v>
@@ -7920,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="6">
-        <v>553000</v>
+        <v>531000</v>
       </c>
       <c r="Q142" s="6">
         <v>0</v>
@@ -7931,16 +7925,16 @@
     </row>
     <row r="143">
       <c r="A143" s="4">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="B143" s="4">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C143" s="5">
         <v>45828</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E143" s="6">
         <v>0</v>
@@ -7952,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="6">
-        <v>531000</v>
+        <v>412000</v>
       </c>
       <c r="I143" s="6">
         <v>0</v>
@@ -7976,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="6">
-        <v>531000</v>
+        <v>412000</v>
       </c>
       <c r="Q143" s="6">
         <v>0</v>
@@ -7987,10 +7981,10 @@
     </row>
     <row r="144">
       <c r="A144" s="4">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="B144" s="4">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C144" s="5">
         <v>45828</v>
@@ -8008,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="6">
-        <v>412000</v>
+        <v>33750</v>
       </c>
       <c r="I144" s="6">
         <v>0</v>
@@ -8032,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="6">
-        <v>412000</v>
+        <v>33750</v>
       </c>
       <c r="Q144" s="6">
         <v>0</v>
@@ -8043,16 +8037,16 @@
     </row>
     <row r="145">
       <c r="A145" s="4">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="B145" s="4">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C145" s="5">
         <v>45828</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E145" s="6">
         <v>0</v>
@@ -8064,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="H145" s="6">
-        <v>33750</v>
+        <v>176200</v>
       </c>
       <c r="I145" s="6">
         <v>0</v>
@@ -8088,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="6">
-        <v>33750</v>
+        <v>176200</v>
       </c>
       <c r="Q145" s="6">
         <v>0</v>
@@ -8099,16 +8093,16 @@
     </row>
     <row r="146">
       <c r="A146" s="4">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="B146" s="4">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C146" s="5">
         <v>45828</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E146" s="6">
         <v>0</v>
@@ -8120,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="6">
-        <v>176200</v>
+        <v>282600</v>
       </c>
       <c r="I146" s="6">
         <v>0</v>
@@ -8144,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="6">
-        <v>176200</v>
+        <v>282600</v>
       </c>
       <c r="Q146" s="6">
         <v>0</v>
@@ -8155,10 +8149,10 @@
     </row>
     <row r="147">
       <c r="A147" s="4">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="B147" s="4">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C147" s="5">
         <v>45828</v>
@@ -8176,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="6">
-        <v>282600</v>
+        <v>284000</v>
       </c>
       <c r="I147" s="6">
         <v>0</v>
@@ -8200,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="6">
-        <v>282600</v>
+        <v>284000</v>
       </c>
       <c r="Q147" s="6">
         <v>0</v>
@@ -8211,10 +8205,10 @@
     </row>
     <row r="148">
       <c r="A148" s="4">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="B148" s="4">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C148" s="5">
         <v>45828</v>
@@ -8232,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="6">
-        <v>284000</v>
+        <v>502700</v>
       </c>
       <c r="I148" s="6">
         <v>0</v>
@@ -8256,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="6">
-        <v>284000</v>
+        <v>502700</v>
       </c>
       <c r="Q148" s="6">
         <v>0</v>
@@ -8267,16 +8261,16 @@
     </row>
     <row r="149">
       <c r="A149" s="4">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="B149" s="4">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C149" s="5">
         <v>45828</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E149" s="6">
         <v>0</v>
@@ -8288,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="6">
-        <v>502700</v>
+        <v>478800</v>
       </c>
       <c r="I149" s="6">
         <v>0</v>
@@ -8312,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="6">
-        <v>502700</v>
+        <v>478800</v>
       </c>
       <c r="Q149" s="6">
         <v>0</v>
@@ -8323,16 +8317,16 @@
     </row>
     <row r="150">
       <c r="A150" s="4">
-        <v>3770</v>
+        <v>3756</v>
       </c>
       <c r="B150" s="4">
-        <v>1793</v>
+        <v>1779</v>
       </c>
       <c r="C150" s="5">
         <v>45828</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E150" s="6">
         <v>0</v>
@@ -8344,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="6">
-        <v>478800</v>
+        <v>380100</v>
       </c>
       <c r="I150" s="6">
         <v>0</v>
@@ -8368,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="P150" s="6">
-        <v>478800</v>
+        <v>380100</v>
       </c>
       <c r="Q150" s="6">
         <v>0</v>
@@ -8500,7 +8494,7 @@
         <v>45823</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E153" s="6">
         <v>540000</v>
@@ -8556,7 +8550,7 @@
         <v>45823</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E154" s="6">
         <v>372900</v>
@@ -8612,7 +8606,7 @@
         <v>45823</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E155" s="6">
         <v>690900</v>
@@ -8668,7 +8662,7 @@
         <v>45823</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E156" s="6">
         <v>519000</v>
@@ -8724,7 +8718,7 @@
         <v>45823</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E157" s="6">
         <v>223800</v>
@@ -8780,7 +8774,7 @@
         <v>45823</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E158" s="6">
         <v>426600</v>
@@ -8836,7 +8830,7 @@
         <v>45823</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E159" s="6">
         <v>336700</v>
@@ -8892,7 +8886,7 @@
         <v>45823</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E160" s="6">
         <v>505100</v>
@@ -8994,20 +8988,20 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="4">
-        <v>3739</v>
-      </c>
-      <c r="B162" s="4">
-        <v>1762</v>
-      </c>
-      <c r="C162" s="5">
-        <v>45808</v>
+      <c r="A162" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E162" s="6">
-        <v>435500</v>
+        <v>78798777</v>
       </c>
       <c r="F162" s="6">
         <v>0</v>
@@ -9016,10 +9010,10 @@
         <v>0</v>
       </c>
       <c r="H162" s="6">
-        <v>0</v>
+        <v>3634150</v>
       </c>
       <c r="I162" s="6">
-        <v>0</v>
+        <v>2918000</v>
       </c>
       <c r="J162" s="6">
         <v>0</v>
@@ -9031,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="6">
-        <v>0</v>
+        <v>740400</v>
       </c>
       <c r="N162" s="6">
         <v>0</v>
@@ -9040,6173 +9034,13 @@
         <v>0</v>
       </c>
       <c r="P162" s="6">
-        <v>435500</v>
+        <v>86091327</v>
       </c>
       <c r="Q162" s="6">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="R162" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="4">
-        <v>3740</v>
-      </c>
-      <c r="B163" s="4">
-        <v>1763</v>
-      </c>
-      <c r="C163" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E163" s="6">
-        <v>540000</v>
-      </c>
-      <c r="F163" s="6">
-        <v>0</v>
-      </c>
-      <c r="G163" s="6">
-        <v>0</v>
-      </c>
-      <c r="H163" s="6">
-        <v>0</v>
-      </c>
-      <c r="I163" s="6">
-        <v>0</v>
-      </c>
-      <c r="J163" s="6">
-        <v>0</v>
-      </c>
-      <c r="K163" s="6">
-        <v>0</v>
-      </c>
-      <c r="L163" s="6">
-        <v>0</v>
-      </c>
-      <c r="M163" s="6">
-        <v>0</v>
-      </c>
-      <c r="N163" s="6">
-        <v>0</v>
-      </c>
-      <c r="O163" s="6">
-        <v>0</v>
-      </c>
-      <c r="P163" s="6">
-        <v>540000</v>
-      </c>
-      <c r="Q163" s="6">
-        <v>0</v>
-      </c>
-      <c r="R163" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="4">
-        <v>3741</v>
-      </c>
-      <c r="B164" s="4">
-        <v>1764</v>
-      </c>
-      <c r="C164" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E164" s="6">
-        <v>519000</v>
-      </c>
-      <c r="F164" s="6">
-        <v>0</v>
-      </c>
-      <c r="G164" s="6">
-        <v>0</v>
-      </c>
-      <c r="H164" s="6">
-        <v>0</v>
-      </c>
-      <c r="I164" s="6">
-        <v>0</v>
-      </c>
-      <c r="J164" s="6">
-        <v>0</v>
-      </c>
-      <c r="K164" s="6">
-        <v>0</v>
-      </c>
-      <c r="L164" s="6">
-        <v>0</v>
-      </c>
-      <c r="M164" s="6">
-        <v>0</v>
-      </c>
-      <c r="N164" s="6">
-        <v>0</v>
-      </c>
-      <c r="O164" s="6">
-        <v>0</v>
-      </c>
-      <c r="P164" s="6">
-        <v>519000</v>
-      </c>
-      <c r="Q164" s="6">
-        <v>0</v>
-      </c>
-      <c r="R164" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="4">
-        <v>3742</v>
-      </c>
-      <c r="B165" s="4">
-        <v>1765</v>
-      </c>
-      <c r="C165" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E165" s="6">
-        <v>536200</v>
-      </c>
-      <c r="F165" s="6">
-        <v>0</v>
-      </c>
-      <c r="G165" s="6">
-        <v>0</v>
-      </c>
-      <c r="H165" s="6">
-        <v>0</v>
-      </c>
-      <c r="I165" s="6">
-        <v>0</v>
-      </c>
-      <c r="J165" s="6">
-        <v>0</v>
-      </c>
-      <c r="K165" s="6">
-        <v>0</v>
-      </c>
-      <c r="L165" s="6">
-        <v>0</v>
-      </c>
-      <c r="M165" s="6">
-        <v>0</v>
-      </c>
-      <c r="N165" s="6">
-        <v>0</v>
-      </c>
-      <c r="O165" s="6">
-        <v>0</v>
-      </c>
-      <c r="P165" s="6">
-        <v>536200</v>
-      </c>
-      <c r="Q165" s="6">
-        <v>0</v>
-      </c>
-      <c r="R165" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="4">
-        <v>3743</v>
-      </c>
-      <c r="B166" s="4">
-        <v>1766</v>
-      </c>
-      <c r="C166" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E166" s="6">
-        <v>378000</v>
-      </c>
-      <c r="F166" s="6">
-        <v>0</v>
-      </c>
-      <c r="G166" s="6">
-        <v>0</v>
-      </c>
-      <c r="H166" s="6">
-        <v>0</v>
-      </c>
-      <c r="I166" s="6">
-        <v>0</v>
-      </c>
-      <c r="J166" s="6">
-        <v>0</v>
-      </c>
-      <c r="K166" s="6">
-        <v>0</v>
-      </c>
-      <c r="L166" s="6">
-        <v>0</v>
-      </c>
-      <c r="M166" s="6">
-        <v>0</v>
-      </c>
-      <c r="N166" s="6">
-        <v>0</v>
-      </c>
-      <c r="O166" s="6">
-        <v>0</v>
-      </c>
-      <c r="P166" s="6">
-        <v>378000</v>
-      </c>
-      <c r="Q166" s="6">
-        <v>0</v>
-      </c>
-      <c r="R166" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="4">
-        <v>3744</v>
-      </c>
-      <c r="B167" s="4">
-        <v>1767</v>
-      </c>
-      <c r="C167" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="6">
-        <v>339000</v>
-      </c>
-      <c r="F167" s="6">
-        <v>0</v>
-      </c>
-      <c r="G167" s="6">
-        <v>0</v>
-      </c>
-      <c r="H167" s="6">
-        <v>0</v>
-      </c>
-      <c r="I167" s="6">
-        <v>0</v>
-      </c>
-      <c r="J167" s="6">
-        <v>0</v>
-      </c>
-      <c r="K167" s="6">
-        <v>0</v>
-      </c>
-      <c r="L167" s="6">
-        <v>0</v>
-      </c>
-      <c r="M167" s="6">
-        <v>0</v>
-      </c>
-      <c r="N167" s="6">
-        <v>0</v>
-      </c>
-      <c r="O167" s="6">
-        <v>0</v>
-      </c>
-      <c r="P167" s="6">
-        <v>339000</v>
-      </c>
-      <c r="Q167" s="6">
-        <v>0</v>
-      </c>
-      <c r="R167" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="4">
-        <v>3745</v>
-      </c>
-      <c r="B168" s="4">
-        <v>1768</v>
-      </c>
-      <c r="C168" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E168" s="6">
-        <v>284800</v>
-      </c>
-      <c r="F168" s="6">
-        <v>0</v>
-      </c>
-      <c r="G168" s="6">
-        <v>0</v>
-      </c>
-      <c r="H168" s="6">
-        <v>0</v>
-      </c>
-      <c r="I168" s="6">
-        <v>0</v>
-      </c>
-      <c r="J168" s="6">
-        <v>0</v>
-      </c>
-      <c r="K168" s="6">
-        <v>0</v>
-      </c>
-      <c r="L168" s="6">
-        <v>0</v>
-      </c>
-      <c r="M168" s="6">
-        <v>0</v>
-      </c>
-      <c r="N168" s="6">
-        <v>0</v>
-      </c>
-      <c r="O168" s="6">
-        <v>0</v>
-      </c>
-      <c r="P168" s="6">
-        <v>284800</v>
-      </c>
-      <c r="Q168" s="6">
-        <v>0</v>
-      </c>
-      <c r="R168" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="4">
-        <v>3746</v>
-      </c>
-      <c r="B169" s="4">
-        <v>1769</v>
-      </c>
-      <c r="C169" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" s="6">
-        <v>1030000</v>
-      </c>
-      <c r="F169" s="6">
-        <v>0</v>
-      </c>
-      <c r="G169" s="6">
-        <v>0</v>
-      </c>
-      <c r="H169" s="6">
-        <v>0</v>
-      </c>
-      <c r="I169" s="6">
-        <v>0</v>
-      </c>
-      <c r="J169" s="6">
-        <v>0</v>
-      </c>
-      <c r="K169" s="6">
-        <v>0</v>
-      </c>
-      <c r="L169" s="6">
-        <v>0</v>
-      </c>
-      <c r="M169" s="6">
-        <v>0</v>
-      </c>
-      <c r="N169" s="6">
-        <v>0</v>
-      </c>
-      <c r="O169" s="6">
-        <v>0</v>
-      </c>
-      <c r="P169" s="6">
-        <v>1030000</v>
-      </c>
-      <c r="Q169" s="6">
-        <v>0</v>
-      </c>
-      <c r="R169" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="4">
-        <v>3747</v>
-      </c>
-      <c r="B170" s="4">
-        <v>1770</v>
-      </c>
-      <c r="C170" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E170" s="6">
-        <v>555700</v>
-      </c>
-      <c r="F170" s="6">
-        <v>0</v>
-      </c>
-      <c r="G170" s="6">
-        <v>0</v>
-      </c>
-      <c r="H170" s="6">
-        <v>0</v>
-      </c>
-      <c r="I170" s="6">
-        <v>0</v>
-      </c>
-      <c r="J170" s="6">
-        <v>0</v>
-      </c>
-      <c r="K170" s="6">
-        <v>0</v>
-      </c>
-      <c r="L170" s="6">
-        <v>0</v>
-      </c>
-      <c r="M170" s="6">
-        <v>0</v>
-      </c>
-      <c r="N170" s="6">
-        <v>0</v>
-      </c>
-      <c r="O170" s="6">
-        <v>0</v>
-      </c>
-      <c r="P170" s="6">
-        <v>555700</v>
-      </c>
-      <c r="Q170" s="6">
-        <v>0</v>
-      </c>
-      <c r="R170" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="4">
-        <v>3748</v>
-      </c>
-      <c r="B171" s="4">
-        <v>1771</v>
-      </c>
-      <c r="C171" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E171" s="6">
-        <v>596600</v>
-      </c>
-      <c r="F171" s="6">
-        <v>0</v>
-      </c>
-      <c r="G171" s="6">
-        <v>0</v>
-      </c>
-      <c r="H171" s="6">
-        <v>0</v>
-      </c>
-      <c r="I171" s="6">
-        <v>0</v>
-      </c>
-      <c r="J171" s="6">
-        <v>0</v>
-      </c>
-      <c r="K171" s="6">
-        <v>0</v>
-      </c>
-      <c r="L171" s="6">
-        <v>0</v>
-      </c>
-      <c r="M171" s="6">
-        <v>0</v>
-      </c>
-      <c r="N171" s="6">
-        <v>0</v>
-      </c>
-      <c r="O171" s="6">
-        <v>0</v>
-      </c>
-      <c r="P171" s="6">
-        <v>596600</v>
-      </c>
-      <c r="Q171" s="6">
-        <v>0</v>
-      </c>
-      <c r="R171" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="4">
-        <v>3728</v>
-      </c>
-      <c r="B172" s="4">
-        <v>1751</v>
-      </c>
-      <c r="C172" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" s="6">
-        <v>540000</v>
-      </c>
-      <c r="F172" s="6">
-        <v>0</v>
-      </c>
-      <c r="G172" s="6">
-        <v>0</v>
-      </c>
-      <c r="H172" s="6">
-        <v>0</v>
-      </c>
-      <c r="I172" s="6">
-        <v>0</v>
-      </c>
-      <c r="J172" s="6">
-        <v>0</v>
-      </c>
-      <c r="K172" s="6">
-        <v>0</v>
-      </c>
-      <c r="L172" s="6">
-        <v>0</v>
-      </c>
-      <c r="M172" s="6">
-        <v>0</v>
-      </c>
-      <c r="N172" s="6">
-        <v>0</v>
-      </c>
-      <c r="O172" s="6">
-        <v>0</v>
-      </c>
-      <c r="P172" s="6">
-        <v>540000</v>
-      </c>
-      <c r="Q172" s="6">
-        <v>0</v>
-      </c>
-      <c r="R172" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="4">
-        <v>3729</v>
-      </c>
-      <c r="B173" s="4">
-        <v>1752</v>
-      </c>
-      <c r="C173" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E173" s="6">
-        <v>51900</v>
-      </c>
-      <c r="F173" s="6">
-        <v>0</v>
-      </c>
-      <c r="G173" s="6">
-        <v>0</v>
-      </c>
-      <c r="H173" s="6">
-        <v>0</v>
-      </c>
-      <c r="I173" s="6">
-        <v>0</v>
-      </c>
-      <c r="J173" s="6">
-        <v>0</v>
-      </c>
-      <c r="K173" s="6">
-        <v>0</v>
-      </c>
-      <c r="L173" s="6">
-        <v>0</v>
-      </c>
-      <c r="M173" s="6">
-        <v>0</v>
-      </c>
-      <c r="N173" s="6">
-        <v>0</v>
-      </c>
-      <c r="O173" s="6">
-        <v>0</v>
-      </c>
-      <c r="P173" s="6">
-        <v>51900</v>
-      </c>
-      <c r="Q173" s="6">
-        <v>0</v>
-      </c>
-      <c r="R173" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="4">
-        <v>3730</v>
-      </c>
-      <c r="B174" s="4">
-        <v>1753</v>
-      </c>
-      <c r="C174" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E174" s="6">
-        <v>461700</v>
-      </c>
-      <c r="F174" s="6">
-        <v>0</v>
-      </c>
-      <c r="G174" s="6">
-        <v>0</v>
-      </c>
-      <c r="H174" s="6">
-        <v>0</v>
-      </c>
-      <c r="I174" s="6">
-        <v>0</v>
-      </c>
-      <c r="J174" s="6">
-        <v>0</v>
-      </c>
-      <c r="K174" s="6">
-        <v>0</v>
-      </c>
-      <c r="L174" s="6">
-        <v>0</v>
-      </c>
-      <c r="M174" s="6">
-        <v>0</v>
-      </c>
-      <c r="N174" s="6">
-        <v>0</v>
-      </c>
-      <c r="O174" s="6">
-        <v>0</v>
-      </c>
-      <c r="P174" s="6">
-        <v>461700</v>
-      </c>
-      <c r="Q174" s="6">
-        <v>0</v>
-      </c>
-      <c r="R174" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="4">
-        <v>3731</v>
-      </c>
-      <c r="B175" s="4">
-        <v>1754</v>
-      </c>
-      <c r="C175" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E175" s="6">
-        <v>235600</v>
-      </c>
-      <c r="F175" s="6">
-        <v>0</v>
-      </c>
-      <c r="G175" s="6">
-        <v>0</v>
-      </c>
-      <c r="H175" s="6">
-        <v>0</v>
-      </c>
-      <c r="I175" s="6">
-        <v>0</v>
-      </c>
-      <c r="J175" s="6">
-        <v>0</v>
-      </c>
-      <c r="K175" s="6">
-        <v>0</v>
-      </c>
-      <c r="L175" s="6">
-        <v>0</v>
-      </c>
-      <c r="M175" s="6">
-        <v>0</v>
-      </c>
-      <c r="N175" s="6">
-        <v>0</v>
-      </c>
-      <c r="O175" s="6">
-        <v>0</v>
-      </c>
-      <c r="P175" s="6">
-        <v>235600</v>
-      </c>
-      <c r="Q175" s="6">
-        <v>0</v>
-      </c>
-      <c r="R175" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="4">
-        <v>3732</v>
-      </c>
-      <c r="B176" s="4">
-        <v>1755</v>
-      </c>
-      <c r="C176" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E176" s="6">
-        <v>188200</v>
-      </c>
-      <c r="F176" s="6">
-        <v>0</v>
-      </c>
-      <c r="G176" s="6">
-        <v>0</v>
-      </c>
-      <c r="H176" s="6">
-        <v>0</v>
-      </c>
-      <c r="I176" s="6">
-        <v>0</v>
-      </c>
-      <c r="J176" s="6">
-        <v>0</v>
-      </c>
-      <c r="K176" s="6">
-        <v>0</v>
-      </c>
-      <c r="L176" s="6">
-        <v>0</v>
-      </c>
-      <c r="M176" s="6">
-        <v>0</v>
-      </c>
-      <c r="N176" s="6">
-        <v>0</v>
-      </c>
-      <c r="O176" s="6">
-        <v>0</v>
-      </c>
-      <c r="P176" s="6">
-        <v>188200</v>
-      </c>
-      <c r="Q176" s="6">
-        <v>0</v>
-      </c>
-      <c r="R176" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="4">
-        <v>3733</v>
-      </c>
-      <c r="B177" s="4">
-        <v>1756</v>
-      </c>
-      <c r="C177" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="6">
-        <v>308700</v>
-      </c>
-      <c r="F177" s="6">
-        <v>0</v>
-      </c>
-      <c r="G177" s="6">
-        <v>0</v>
-      </c>
-      <c r="H177" s="6">
-        <v>0</v>
-      </c>
-      <c r="I177" s="6">
-        <v>0</v>
-      </c>
-      <c r="J177" s="6">
-        <v>0</v>
-      </c>
-      <c r="K177" s="6">
-        <v>0</v>
-      </c>
-      <c r="L177" s="6">
-        <v>0</v>
-      </c>
-      <c r="M177" s="6">
-        <v>0</v>
-      </c>
-      <c r="N177" s="6">
-        <v>0</v>
-      </c>
-      <c r="O177" s="6">
-        <v>0</v>
-      </c>
-      <c r="P177" s="6">
-        <v>308700</v>
-      </c>
-      <c r="Q177" s="6">
-        <v>0</v>
-      </c>
-      <c r="R177" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="4">
-        <v>3734</v>
-      </c>
-      <c r="B178" s="4">
-        <v>1757</v>
-      </c>
-      <c r="C178" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" s="6">
-        <v>763600</v>
-      </c>
-      <c r="F178" s="6">
-        <v>0</v>
-      </c>
-      <c r="G178" s="6">
-        <v>0</v>
-      </c>
-      <c r="H178" s="6">
-        <v>0</v>
-      </c>
-      <c r="I178" s="6">
-        <v>0</v>
-      </c>
-      <c r="J178" s="6">
-        <v>0</v>
-      </c>
-      <c r="K178" s="6">
-        <v>0</v>
-      </c>
-      <c r="L178" s="6">
-        <v>0</v>
-      </c>
-      <c r="M178" s="6">
-        <v>0</v>
-      </c>
-      <c r="N178" s="6">
-        <v>0</v>
-      </c>
-      <c r="O178" s="6">
-        <v>0</v>
-      </c>
-      <c r="P178" s="6">
-        <v>763600</v>
-      </c>
-      <c r="Q178" s="6">
-        <v>0</v>
-      </c>
-      <c r="R178" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="4">
-        <v>3735</v>
-      </c>
-      <c r="B179" s="4">
-        <v>1758</v>
-      </c>
-      <c r="C179" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E179" s="6">
-        <v>505100</v>
-      </c>
-      <c r="F179" s="6">
-        <v>0</v>
-      </c>
-      <c r="G179" s="6">
-        <v>0</v>
-      </c>
-      <c r="H179" s="6">
-        <v>0</v>
-      </c>
-      <c r="I179" s="6">
-        <v>0</v>
-      </c>
-      <c r="J179" s="6">
-        <v>0</v>
-      </c>
-      <c r="K179" s="6">
-        <v>0</v>
-      </c>
-      <c r="L179" s="6">
-        <v>0</v>
-      </c>
-      <c r="M179" s="6">
-        <v>0</v>
-      </c>
-      <c r="N179" s="6">
-        <v>0</v>
-      </c>
-      <c r="O179" s="6">
-        <v>0</v>
-      </c>
-      <c r="P179" s="6">
-        <v>505100</v>
-      </c>
-      <c r="Q179" s="6">
-        <v>0</v>
-      </c>
-      <c r="R179" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="4">
-        <v>3736</v>
-      </c>
-      <c r="B180" s="4">
-        <v>1759</v>
-      </c>
-      <c r="C180" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E180" s="6">
-        <v>202100</v>
-      </c>
-      <c r="F180" s="6">
-        <v>0</v>
-      </c>
-      <c r="G180" s="6">
-        <v>0</v>
-      </c>
-      <c r="H180" s="6">
-        <v>0</v>
-      </c>
-      <c r="I180" s="6">
-        <v>0</v>
-      </c>
-      <c r="J180" s="6">
-        <v>0</v>
-      </c>
-      <c r="K180" s="6">
-        <v>0</v>
-      </c>
-      <c r="L180" s="6">
-        <v>0</v>
-      </c>
-      <c r="M180" s="6">
-        <v>0</v>
-      </c>
-      <c r="N180" s="6">
-        <v>0</v>
-      </c>
-      <c r="O180" s="6">
-        <v>0</v>
-      </c>
-      <c r="P180" s="6">
-        <v>202100</v>
-      </c>
-      <c r="Q180" s="6">
-        <v>0</v>
-      </c>
-      <c r="R180" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="4">
-        <v>3737</v>
-      </c>
-      <c r="B181" s="4">
-        <v>1760</v>
-      </c>
-      <c r="C181" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E181" s="6">
-        <v>348500</v>
-      </c>
-      <c r="F181" s="6">
-        <v>0</v>
-      </c>
-      <c r="G181" s="6">
-        <v>0</v>
-      </c>
-      <c r="H181" s="6">
-        <v>0</v>
-      </c>
-      <c r="I181" s="6">
-        <v>0</v>
-      </c>
-      <c r="J181" s="6">
-        <v>0</v>
-      </c>
-      <c r="K181" s="6">
-        <v>0</v>
-      </c>
-      <c r="L181" s="6">
-        <v>0</v>
-      </c>
-      <c r="M181" s="6">
-        <v>0</v>
-      </c>
-      <c r="N181" s="6">
-        <v>0</v>
-      </c>
-      <c r="O181" s="6">
-        <v>0</v>
-      </c>
-      <c r="P181" s="6">
-        <v>348500</v>
-      </c>
-      <c r="Q181" s="6">
-        <v>0</v>
-      </c>
-      <c r="R181" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="4">
-        <v>3738</v>
-      </c>
-      <c r="B182" s="4">
-        <v>1761</v>
-      </c>
-      <c r="C182" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E182" s="6">
-        <v>488200</v>
-      </c>
-      <c r="F182" s="6">
-        <v>0</v>
-      </c>
-      <c r="G182" s="6">
-        <v>0</v>
-      </c>
-      <c r="H182" s="6">
-        <v>0</v>
-      </c>
-      <c r="I182" s="6">
-        <v>0</v>
-      </c>
-      <c r="J182" s="6">
-        <v>0</v>
-      </c>
-      <c r="K182" s="6">
-        <v>0</v>
-      </c>
-      <c r="L182" s="6">
-        <v>0</v>
-      </c>
-      <c r="M182" s="6">
-        <v>0</v>
-      </c>
-      <c r="N182" s="6">
-        <v>0</v>
-      </c>
-      <c r="O182" s="6">
-        <v>0</v>
-      </c>
-      <c r="P182" s="6">
-        <v>488200</v>
-      </c>
-      <c r="Q182" s="6">
-        <v>0</v>
-      </c>
-      <c r="R182" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="4">
-        <v>3716</v>
-      </c>
-      <c r="B183" s="4">
-        <v>1739</v>
-      </c>
-      <c r="C183" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E183" s="6">
-        <v>785000</v>
-      </c>
-      <c r="F183" s="6">
-        <v>0</v>
-      </c>
-      <c r="G183" s="6">
-        <v>0</v>
-      </c>
-      <c r="H183" s="6">
-        <v>0</v>
-      </c>
-      <c r="I183" s="6">
-        <v>0</v>
-      </c>
-      <c r="J183" s="6">
-        <v>0</v>
-      </c>
-      <c r="K183" s="6">
-        <v>0</v>
-      </c>
-      <c r="L183" s="6">
-        <v>0</v>
-      </c>
-      <c r="M183" s="6">
-        <v>0</v>
-      </c>
-      <c r="N183" s="6">
-        <v>0</v>
-      </c>
-      <c r="O183" s="6">
-        <v>0</v>
-      </c>
-      <c r="P183" s="6">
-        <v>785000</v>
-      </c>
-      <c r="Q183" s="6">
-        <v>0</v>
-      </c>
-      <c r="R183" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="4">
-        <v>3717</v>
-      </c>
-      <c r="B184" s="4">
-        <v>1740</v>
-      </c>
-      <c r="C184" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E184" s="6">
-        <v>526500</v>
-      </c>
-      <c r="F184" s="6">
-        <v>0</v>
-      </c>
-      <c r="G184" s="6">
-        <v>0</v>
-      </c>
-      <c r="H184" s="6">
-        <v>0</v>
-      </c>
-      <c r="I184" s="6">
-        <v>0</v>
-      </c>
-      <c r="J184" s="6">
-        <v>0</v>
-      </c>
-      <c r="K184" s="6">
-        <v>0</v>
-      </c>
-      <c r="L184" s="6">
-        <v>0</v>
-      </c>
-      <c r="M184" s="6">
-        <v>0</v>
-      </c>
-      <c r="N184" s="6">
-        <v>0</v>
-      </c>
-      <c r="O184" s="6">
-        <v>0</v>
-      </c>
-      <c r="P184" s="6">
-        <v>526500</v>
-      </c>
-      <c r="Q184" s="6">
-        <v>0</v>
-      </c>
-      <c r="R184" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="4">
-        <v>3718</v>
-      </c>
-      <c r="B185" s="4">
-        <v>1741</v>
-      </c>
-      <c r="C185" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E185" s="6">
-        <v>531100</v>
-      </c>
-      <c r="F185" s="6">
-        <v>0</v>
-      </c>
-      <c r="G185" s="6">
-        <v>0</v>
-      </c>
-      <c r="H185" s="6">
-        <v>0</v>
-      </c>
-      <c r="I185" s="6">
-        <v>0</v>
-      </c>
-      <c r="J185" s="6">
-        <v>0</v>
-      </c>
-      <c r="K185" s="6">
-        <v>0</v>
-      </c>
-      <c r="L185" s="6">
-        <v>0</v>
-      </c>
-      <c r="M185" s="6">
-        <v>0</v>
-      </c>
-      <c r="N185" s="6">
-        <v>0</v>
-      </c>
-      <c r="O185" s="6">
-        <v>0</v>
-      </c>
-      <c r="P185" s="6">
-        <v>531100</v>
-      </c>
-      <c r="Q185" s="6">
-        <v>0</v>
-      </c>
-      <c r="R185" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="4">
-        <v>3719</v>
-      </c>
-      <c r="B186" s="4">
-        <v>1742</v>
-      </c>
-      <c r="C186" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E186" s="6">
-        <v>487000</v>
-      </c>
-      <c r="F186" s="6">
-        <v>0</v>
-      </c>
-      <c r="G186" s="6">
-        <v>0</v>
-      </c>
-      <c r="H186" s="6">
-        <v>0</v>
-      </c>
-      <c r="I186" s="6">
-        <v>0</v>
-      </c>
-      <c r="J186" s="6">
-        <v>0</v>
-      </c>
-      <c r="K186" s="6">
-        <v>0</v>
-      </c>
-      <c r="L186" s="6">
-        <v>0</v>
-      </c>
-      <c r="M186" s="6">
-        <v>0</v>
-      </c>
-      <c r="N186" s="6">
-        <v>0</v>
-      </c>
-      <c r="O186" s="6">
-        <v>0</v>
-      </c>
-      <c r="P186" s="6">
-        <v>487000</v>
-      </c>
-      <c r="Q186" s="6">
-        <v>0</v>
-      </c>
-      <c r="R186" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="4">
-        <v>3720</v>
-      </c>
-      <c r="B187" s="4">
-        <v>1743</v>
-      </c>
-      <c r="C187" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E187" s="6">
-        <v>81000</v>
-      </c>
-      <c r="F187" s="6">
-        <v>0</v>
-      </c>
-      <c r="G187" s="6">
-        <v>0</v>
-      </c>
-      <c r="H187" s="6">
-        <v>0</v>
-      </c>
-      <c r="I187" s="6">
-        <v>0</v>
-      </c>
-      <c r="J187" s="6">
-        <v>0</v>
-      </c>
-      <c r="K187" s="6">
-        <v>0</v>
-      </c>
-      <c r="L187" s="6">
-        <v>0</v>
-      </c>
-      <c r="M187" s="6">
-        <v>0</v>
-      </c>
-      <c r="N187" s="6">
-        <v>0</v>
-      </c>
-      <c r="O187" s="6">
-        <v>0</v>
-      </c>
-      <c r="P187" s="6">
-        <v>81000</v>
-      </c>
-      <c r="Q187" s="6">
-        <v>0</v>
-      </c>
-      <c r="R187" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="4">
-        <v>3721</v>
-      </c>
-      <c r="B188" s="4">
-        <v>1744</v>
-      </c>
-      <c r="C188" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E188" s="6">
-        <v>210000</v>
-      </c>
-      <c r="F188" s="6">
-        <v>0</v>
-      </c>
-      <c r="G188" s="6">
-        <v>0</v>
-      </c>
-      <c r="H188" s="6">
-        <v>0</v>
-      </c>
-      <c r="I188" s="6">
-        <v>0</v>
-      </c>
-      <c r="J188" s="6">
-        <v>0</v>
-      </c>
-      <c r="K188" s="6">
-        <v>0</v>
-      </c>
-      <c r="L188" s="6">
-        <v>0</v>
-      </c>
-      <c r="M188" s="6">
-        <v>0</v>
-      </c>
-      <c r="N188" s="6">
-        <v>0</v>
-      </c>
-      <c r="O188" s="6">
-        <v>0</v>
-      </c>
-      <c r="P188" s="6">
-        <v>210000</v>
-      </c>
-      <c r="Q188" s="6">
-        <v>0</v>
-      </c>
-      <c r="R188" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="4">
-        <v>3722</v>
-      </c>
-      <c r="B189" s="4">
-        <v>1745</v>
-      </c>
-      <c r="C189" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E189" s="6">
-        <v>301200</v>
-      </c>
-      <c r="F189" s="6">
-        <v>0</v>
-      </c>
-      <c r="G189" s="6">
-        <v>0</v>
-      </c>
-      <c r="H189" s="6">
-        <v>0</v>
-      </c>
-      <c r="I189" s="6">
-        <v>0</v>
-      </c>
-      <c r="J189" s="6">
-        <v>0</v>
-      </c>
-      <c r="K189" s="6">
-        <v>0</v>
-      </c>
-      <c r="L189" s="6">
-        <v>0</v>
-      </c>
-      <c r="M189" s="6">
-        <v>0</v>
-      </c>
-      <c r="N189" s="6">
-        <v>0</v>
-      </c>
-      <c r="O189" s="6">
-        <v>0</v>
-      </c>
-      <c r="P189" s="6">
-        <v>301200</v>
-      </c>
-      <c r="Q189" s="6">
-        <v>0</v>
-      </c>
-      <c r="R189" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="4">
-        <v>3723</v>
-      </c>
-      <c r="B190" s="4">
-        <v>1746</v>
-      </c>
-      <c r="C190" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E190" s="6">
-        <v>916000</v>
-      </c>
-      <c r="F190" s="6">
-        <v>0</v>
-      </c>
-      <c r="G190" s="6">
-        <v>0</v>
-      </c>
-      <c r="H190" s="6">
-        <v>0</v>
-      </c>
-      <c r="I190" s="6">
-        <v>0</v>
-      </c>
-      <c r="J190" s="6">
-        <v>0</v>
-      </c>
-      <c r="K190" s="6">
-        <v>0</v>
-      </c>
-      <c r="L190" s="6">
-        <v>0</v>
-      </c>
-      <c r="M190" s="6">
-        <v>0</v>
-      </c>
-      <c r="N190" s="6">
-        <v>0</v>
-      </c>
-      <c r="O190" s="6">
-        <v>0</v>
-      </c>
-      <c r="P190" s="6">
-        <v>916000</v>
-      </c>
-      <c r="Q190" s="6">
-        <v>0</v>
-      </c>
-      <c r="R190" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="4">
-        <v>3724</v>
-      </c>
-      <c r="B191" s="4">
-        <v>1747</v>
-      </c>
-      <c r="C191" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E191" s="6">
-        <v>556200</v>
-      </c>
-      <c r="F191" s="6">
-        <v>0</v>
-      </c>
-      <c r="G191" s="6">
-        <v>0</v>
-      </c>
-      <c r="H191" s="6">
-        <v>0</v>
-      </c>
-      <c r="I191" s="6">
-        <v>0</v>
-      </c>
-      <c r="J191" s="6">
-        <v>0</v>
-      </c>
-      <c r="K191" s="6">
-        <v>0</v>
-      </c>
-      <c r="L191" s="6">
-        <v>0</v>
-      </c>
-      <c r="M191" s="6">
-        <v>0</v>
-      </c>
-      <c r="N191" s="6">
-        <v>0</v>
-      </c>
-      <c r="O191" s="6">
-        <v>0</v>
-      </c>
-      <c r="P191" s="6">
-        <v>556200</v>
-      </c>
-      <c r="Q191" s="6">
-        <v>0</v>
-      </c>
-      <c r="R191" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="4">
-        <v>3725</v>
-      </c>
-      <c r="B192" s="4">
-        <v>1748</v>
-      </c>
-      <c r="C192" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E192" s="6">
-        <v>567100</v>
-      </c>
-      <c r="F192" s="6">
-        <v>0</v>
-      </c>
-      <c r="G192" s="6">
-        <v>0</v>
-      </c>
-      <c r="H192" s="6">
-        <v>0</v>
-      </c>
-      <c r="I192" s="6">
-        <v>0</v>
-      </c>
-      <c r="J192" s="6">
-        <v>0</v>
-      </c>
-      <c r="K192" s="6">
-        <v>0</v>
-      </c>
-      <c r="L192" s="6">
-        <v>0</v>
-      </c>
-      <c r="M192" s="6">
-        <v>0</v>
-      </c>
-      <c r="N192" s="6">
-        <v>0</v>
-      </c>
-      <c r="O192" s="6">
-        <v>0</v>
-      </c>
-      <c r="P192" s="6">
-        <v>567100</v>
-      </c>
-      <c r="Q192" s="6">
-        <v>0</v>
-      </c>
-      <c r="R192" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="4">
-        <v>3726</v>
-      </c>
-      <c r="B193" s="4">
-        <v>1749</v>
-      </c>
-      <c r="C193" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E193" s="6">
-        <v>449700</v>
-      </c>
-      <c r="F193" s="6">
-        <v>0</v>
-      </c>
-      <c r="G193" s="6">
-        <v>0</v>
-      </c>
-      <c r="H193" s="6">
-        <v>0</v>
-      </c>
-      <c r="I193" s="6">
-        <v>0</v>
-      </c>
-      <c r="J193" s="6">
-        <v>0</v>
-      </c>
-      <c r="K193" s="6">
-        <v>0</v>
-      </c>
-      <c r="L193" s="6">
-        <v>0</v>
-      </c>
-      <c r="M193" s="6">
-        <v>0</v>
-      </c>
-      <c r="N193" s="6">
-        <v>0</v>
-      </c>
-      <c r="O193" s="6">
-        <v>0</v>
-      </c>
-      <c r="P193" s="6">
-        <v>449700</v>
-      </c>
-      <c r="Q193" s="6">
-        <v>0</v>
-      </c>
-      <c r="R193" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="4">
-        <v>3727</v>
-      </c>
-      <c r="B194" s="4">
-        <v>1750</v>
-      </c>
-      <c r="C194" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E194" s="6">
-        <v>403500</v>
-      </c>
-      <c r="F194" s="6">
-        <v>0</v>
-      </c>
-      <c r="G194" s="6">
-        <v>0</v>
-      </c>
-      <c r="H194" s="6">
-        <v>0</v>
-      </c>
-      <c r="I194" s="6">
-        <v>0</v>
-      </c>
-      <c r="J194" s="6">
-        <v>0</v>
-      </c>
-      <c r="K194" s="6">
-        <v>0</v>
-      </c>
-      <c r="L194" s="6">
-        <v>0</v>
-      </c>
-      <c r="M194" s="6">
-        <v>0</v>
-      </c>
-      <c r="N194" s="6">
-        <v>0</v>
-      </c>
-      <c r="O194" s="6">
-        <v>0</v>
-      </c>
-      <c r="P194" s="6">
-        <v>403500</v>
-      </c>
-      <c r="Q194" s="6">
-        <v>0</v>
-      </c>
-      <c r="R194" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="4">
-        <v>3706</v>
-      </c>
-      <c r="B195" s="4">
-        <v>1729</v>
-      </c>
-      <c r="C195" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E195" s="6">
-        <v>526500</v>
-      </c>
-      <c r="F195" s="6">
-        <v>0</v>
-      </c>
-      <c r="G195" s="6">
-        <v>0</v>
-      </c>
-      <c r="H195" s="6">
-        <v>0</v>
-      </c>
-      <c r="I195" s="6">
-        <v>0</v>
-      </c>
-      <c r="J195" s="6">
-        <v>0</v>
-      </c>
-      <c r="K195" s="6">
-        <v>0</v>
-      </c>
-      <c r="L195" s="6">
-        <v>0</v>
-      </c>
-      <c r="M195" s="6">
-        <v>0</v>
-      </c>
-      <c r="N195" s="6">
-        <v>0</v>
-      </c>
-      <c r="O195" s="6">
-        <v>0</v>
-      </c>
-      <c r="P195" s="6">
-        <v>526500</v>
-      </c>
-      <c r="Q195" s="6">
-        <v>0</v>
-      </c>
-      <c r="R195" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="4">
-        <v>3707</v>
-      </c>
-      <c r="B196" s="4">
-        <v>1730</v>
-      </c>
-      <c r="C196" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" s="6">
-        <v>506100</v>
-      </c>
-      <c r="F196" s="6">
-        <v>0</v>
-      </c>
-      <c r="G196" s="6">
-        <v>0</v>
-      </c>
-      <c r="H196" s="6">
-        <v>0</v>
-      </c>
-      <c r="I196" s="6">
-        <v>0</v>
-      </c>
-      <c r="J196" s="6">
-        <v>0</v>
-      </c>
-      <c r="K196" s="6">
-        <v>0</v>
-      </c>
-      <c r="L196" s="6">
-        <v>0</v>
-      </c>
-      <c r="M196" s="6">
-        <v>0</v>
-      </c>
-      <c r="N196" s="6">
-        <v>0</v>
-      </c>
-      <c r="O196" s="6">
-        <v>0</v>
-      </c>
-      <c r="P196" s="6">
-        <v>506100</v>
-      </c>
-      <c r="Q196" s="6">
-        <v>0</v>
-      </c>
-      <c r="R196" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="4">
-        <v>3708</v>
-      </c>
-      <c r="B197" s="4">
-        <v>1731</v>
-      </c>
-      <c r="C197" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E197" s="6">
-        <v>414100</v>
-      </c>
-      <c r="F197" s="6">
-        <v>0</v>
-      </c>
-      <c r="G197" s="6">
-        <v>0</v>
-      </c>
-      <c r="H197" s="6">
-        <v>0</v>
-      </c>
-      <c r="I197" s="6">
-        <v>0</v>
-      </c>
-      <c r="J197" s="6">
-        <v>0</v>
-      </c>
-      <c r="K197" s="6">
-        <v>0</v>
-      </c>
-      <c r="L197" s="6">
-        <v>0</v>
-      </c>
-      <c r="M197" s="6">
-        <v>0</v>
-      </c>
-      <c r="N197" s="6">
-        <v>0</v>
-      </c>
-      <c r="O197" s="6">
-        <v>0</v>
-      </c>
-      <c r="P197" s="6">
-        <v>414100</v>
-      </c>
-      <c r="Q197" s="6">
-        <v>0</v>
-      </c>
-      <c r="R197" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="4">
-        <v>3709</v>
-      </c>
-      <c r="B198" s="4">
-        <v>1732</v>
-      </c>
-      <c r="C198" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E198" s="6">
-        <v>81000</v>
-      </c>
-      <c r="F198" s="6">
-        <v>0</v>
-      </c>
-      <c r="G198" s="6">
-        <v>0</v>
-      </c>
-      <c r="H198" s="6">
-        <v>0</v>
-      </c>
-      <c r="I198" s="6">
-        <v>0</v>
-      </c>
-      <c r="J198" s="6">
-        <v>0</v>
-      </c>
-      <c r="K198" s="6">
-        <v>0</v>
-      </c>
-      <c r="L198" s="6">
-        <v>0</v>
-      </c>
-      <c r="M198" s="6">
-        <v>0</v>
-      </c>
-      <c r="N198" s="6">
-        <v>0</v>
-      </c>
-      <c r="O198" s="6">
-        <v>0</v>
-      </c>
-      <c r="P198" s="6">
-        <v>81000</v>
-      </c>
-      <c r="Q198" s="6">
-        <v>0</v>
-      </c>
-      <c r="R198" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="4">
-        <v>3710</v>
-      </c>
-      <c r="B199" s="4">
-        <v>1733</v>
-      </c>
-      <c r="C199" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E199" s="6">
-        <v>482200</v>
-      </c>
-      <c r="F199" s="6">
-        <v>0</v>
-      </c>
-      <c r="G199" s="6">
-        <v>0</v>
-      </c>
-      <c r="H199" s="6">
-        <v>0</v>
-      </c>
-      <c r="I199" s="6">
-        <v>0</v>
-      </c>
-      <c r="J199" s="6">
-        <v>0</v>
-      </c>
-      <c r="K199" s="6">
-        <v>0</v>
-      </c>
-      <c r="L199" s="6">
-        <v>0</v>
-      </c>
-      <c r="M199" s="6">
-        <v>0</v>
-      </c>
-      <c r="N199" s="6">
-        <v>0</v>
-      </c>
-      <c r="O199" s="6">
-        <v>0</v>
-      </c>
-      <c r="P199" s="6">
-        <v>482200</v>
-      </c>
-      <c r="Q199" s="6">
-        <v>0</v>
-      </c>
-      <c r="R199" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="4">
-        <v>3711</v>
-      </c>
-      <c r="B200" s="4">
-        <v>1734</v>
-      </c>
-      <c r="C200" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="6">
-        <v>376000</v>
-      </c>
-      <c r="F200" s="6">
-        <v>0</v>
-      </c>
-      <c r="G200" s="6">
-        <v>0</v>
-      </c>
-      <c r="H200" s="6">
-        <v>0</v>
-      </c>
-      <c r="I200" s="6">
-        <v>0</v>
-      </c>
-      <c r="J200" s="6">
-        <v>0</v>
-      </c>
-      <c r="K200" s="6">
-        <v>0</v>
-      </c>
-      <c r="L200" s="6">
-        <v>0</v>
-      </c>
-      <c r="M200" s="6">
-        <v>0</v>
-      </c>
-      <c r="N200" s="6">
-        <v>0</v>
-      </c>
-      <c r="O200" s="6">
-        <v>0</v>
-      </c>
-      <c r="P200" s="6">
-        <v>376000</v>
-      </c>
-      <c r="Q200" s="6">
-        <v>0</v>
-      </c>
-      <c r="R200" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="4">
-        <v>3712</v>
-      </c>
-      <c r="B201" s="4">
-        <v>1735</v>
-      </c>
-      <c r="C201" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E201" s="6">
-        <v>849300</v>
-      </c>
-      <c r="F201" s="6">
-        <v>0</v>
-      </c>
-      <c r="G201" s="6">
-        <v>0</v>
-      </c>
-      <c r="H201" s="6">
-        <v>0</v>
-      </c>
-      <c r="I201" s="6">
-        <v>0</v>
-      </c>
-      <c r="J201" s="6">
-        <v>0</v>
-      </c>
-      <c r="K201" s="6">
-        <v>0</v>
-      </c>
-      <c r="L201" s="6">
-        <v>0</v>
-      </c>
-      <c r="M201" s="6">
-        <v>0</v>
-      </c>
-      <c r="N201" s="6">
-        <v>0</v>
-      </c>
-      <c r="O201" s="6">
-        <v>0</v>
-      </c>
-      <c r="P201" s="6">
-        <v>849300</v>
-      </c>
-      <c r="Q201" s="6">
-        <v>0</v>
-      </c>
-      <c r="R201" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="4">
-        <v>3713</v>
-      </c>
-      <c r="B202" s="4">
-        <v>1736</v>
-      </c>
-      <c r="C202" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E202" s="6">
-        <v>492800</v>
-      </c>
-      <c r="F202" s="6">
-        <v>0</v>
-      </c>
-      <c r="G202" s="6">
-        <v>0</v>
-      </c>
-      <c r="H202" s="6">
-        <v>0</v>
-      </c>
-      <c r="I202" s="6">
-        <v>0</v>
-      </c>
-      <c r="J202" s="6">
-        <v>0</v>
-      </c>
-      <c r="K202" s="6">
-        <v>0</v>
-      </c>
-      <c r="L202" s="6">
-        <v>0</v>
-      </c>
-      <c r="M202" s="6">
-        <v>0</v>
-      </c>
-      <c r="N202" s="6">
-        <v>0</v>
-      </c>
-      <c r="O202" s="6">
-        <v>0</v>
-      </c>
-      <c r="P202" s="6">
-        <v>492800</v>
-      </c>
-      <c r="Q202" s="6">
-        <v>0</v>
-      </c>
-      <c r="R202" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="4">
-        <v>3714</v>
-      </c>
-      <c r="B203" s="4">
-        <v>1737</v>
-      </c>
-      <c r="C203" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E203" s="6">
-        <v>525700</v>
-      </c>
-      <c r="F203" s="6">
-        <v>0</v>
-      </c>
-      <c r="G203" s="6">
-        <v>0</v>
-      </c>
-      <c r="H203" s="6">
-        <v>0</v>
-      </c>
-      <c r="I203" s="6">
-        <v>0</v>
-      </c>
-      <c r="J203" s="6">
-        <v>0</v>
-      </c>
-      <c r="K203" s="6">
-        <v>0</v>
-      </c>
-      <c r="L203" s="6">
-        <v>0</v>
-      </c>
-      <c r="M203" s="6">
-        <v>0</v>
-      </c>
-      <c r="N203" s="6">
-        <v>0</v>
-      </c>
-      <c r="O203" s="6">
-        <v>0</v>
-      </c>
-      <c r="P203" s="6">
-        <v>525700</v>
-      </c>
-      <c r="Q203" s="6">
-        <v>0</v>
-      </c>
-      <c r="R203" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="4">
-        <v>3715</v>
-      </c>
-      <c r="B204" s="4">
-        <v>1738</v>
-      </c>
-      <c r="C204" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E204" s="6">
-        <v>457800</v>
-      </c>
-      <c r="F204" s="6">
-        <v>0</v>
-      </c>
-      <c r="G204" s="6">
-        <v>0</v>
-      </c>
-      <c r="H204" s="6">
-        <v>0</v>
-      </c>
-      <c r="I204" s="6">
-        <v>0</v>
-      </c>
-      <c r="J204" s="6">
-        <v>0</v>
-      </c>
-      <c r="K204" s="6">
-        <v>0</v>
-      </c>
-      <c r="L204" s="6">
-        <v>0</v>
-      </c>
-      <c r="M204" s="6">
-        <v>0</v>
-      </c>
-      <c r="N204" s="6">
-        <v>0</v>
-      </c>
-      <c r="O204" s="6">
-        <v>0</v>
-      </c>
-      <c r="P204" s="6">
-        <v>457800</v>
-      </c>
-      <c r="Q204" s="6">
-        <v>0</v>
-      </c>
-      <c r="R204" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="4">
-        <v>3695</v>
-      </c>
-      <c r="B205" s="4">
-        <v>1718</v>
-      </c>
-      <c r="C205" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" s="6">
-        <v>526500</v>
-      </c>
-      <c r="F205" s="6">
-        <v>0</v>
-      </c>
-      <c r="G205" s="6">
-        <v>0</v>
-      </c>
-      <c r="H205" s="6">
-        <v>0</v>
-      </c>
-      <c r="I205" s="6">
-        <v>0</v>
-      </c>
-      <c r="J205" s="6">
-        <v>0</v>
-      </c>
-      <c r="K205" s="6">
-        <v>0</v>
-      </c>
-      <c r="L205" s="6">
-        <v>0</v>
-      </c>
-      <c r="M205" s="6">
-        <v>0</v>
-      </c>
-      <c r="N205" s="6">
-        <v>0</v>
-      </c>
-      <c r="O205" s="6">
-        <v>0</v>
-      </c>
-      <c r="P205" s="6">
-        <v>526500</v>
-      </c>
-      <c r="Q205" s="6">
-        <v>0</v>
-      </c>
-      <c r="R205" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="4">
-        <v>3696</v>
-      </c>
-      <c r="B206" s="4">
-        <v>1719</v>
-      </c>
-      <c r="C206" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E206" s="6">
-        <v>526100</v>
-      </c>
-      <c r="F206" s="6">
-        <v>0</v>
-      </c>
-      <c r="G206" s="6">
-        <v>0</v>
-      </c>
-      <c r="H206" s="6">
-        <v>0</v>
-      </c>
-      <c r="I206" s="6">
-        <v>0</v>
-      </c>
-      <c r="J206" s="6">
-        <v>0</v>
-      </c>
-      <c r="K206" s="6">
-        <v>0</v>
-      </c>
-      <c r="L206" s="6">
-        <v>0</v>
-      </c>
-      <c r="M206" s="6">
-        <v>0</v>
-      </c>
-      <c r="N206" s="6">
-        <v>0</v>
-      </c>
-      <c r="O206" s="6">
-        <v>0</v>
-      </c>
-      <c r="P206" s="6">
-        <v>526100</v>
-      </c>
-      <c r="Q206" s="6">
-        <v>0</v>
-      </c>
-      <c r="R206" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="4">
-        <v>3697</v>
-      </c>
-      <c r="B207" s="4">
-        <v>1720</v>
-      </c>
-      <c r="C207" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E207" s="6">
-        <v>486800</v>
-      </c>
-      <c r="F207" s="6">
-        <v>0</v>
-      </c>
-      <c r="G207" s="6">
-        <v>0</v>
-      </c>
-      <c r="H207" s="6">
-        <v>0</v>
-      </c>
-      <c r="I207" s="6">
-        <v>0</v>
-      </c>
-      <c r="J207" s="6">
-        <v>0</v>
-      </c>
-      <c r="K207" s="6">
-        <v>0</v>
-      </c>
-      <c r="L207" s="6">
-        <v>0</v>
-      </c>
-      <c r="M207" s="6">
-        <v>0</v>
-      </c>
-      <c r="N207" s="6">
-        <v>0</v>
-      </c>
-      <c r="O207" s="6">
-        <v>0</v>
-      </c>
-      <c r="P207" s="6">
-        <v>486800</v>
-      </c>
-      <c r="Q207" s="6">
-        <v>0</v>
-      </c>
-      <c r="R207" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="4">
-        <v>3698</v>
-      </c>
-      <c r="B208" s="4">
-        <v>1721</v>
-      </c>
-      <c r="C208" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E208" s="6">
-        <v>81000</v>
-      </c>
-      <c r="F208" s="6">
-        <v>0</v>
-      </c>
-      <c r="G208" s="6">
-        <v>0</v>
-      </c>
-      <c r="H208" s="6">
-        <v>0</v>
-      </c>
-      <c r="I208" s="6">
-        <v>0</v>
-      </c>
-      <c r="J208" s="6">
-        <v>0</v>
-      </c>
-      <c r="K208" s="6">
-        <v>0</v>
-      </c>
-      <c r="L208" s="6">
-        <v>0</v>
-      </c>
-      <c r="M208" s="6">
-        <v>0</v>
-      </c>
-      <c r="N208" s="6">
-        <v>0</v>
-      </c>
-      <c r="O208" s="6">
-        <v>0</v>
-      </c>
-      <c r="P208" s="6">
-        <v>81000</v>
-      </c>
-      <c r="Q208" s="6">
-        <v>0</v>
-      </c>
-      <c r="R208" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="4">
-        <v>3699</v>
-      </c>
-      <c r="B209" s="4">
-        <v>1722</v>
-      </c>
-      <c r="C209" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E209" s="6">
-        <v>526500</v>
-      </c>
-      <c r="F209" s="6">
-        <v>0</v>
-      </c>
-      <c r="G209" s="6">
-        <v>0</v>
-      </c>
-      <c r="H209" s="6">
-        <v>0</v>
-      </c>
-      <c r="I209" s="6">
-        <v>0</v>
-      </c>
-      <c r="J209" s="6">
-        <v>0</v>
-      </c>
-      <c r="K209" s="6">
-        <v>0</v>
-      </c>
-      <c r="L209" s="6">
-        <v>0</v>
-      </c>
-      <c r="M209" s="6">
-        <v>0</v>
-      </c>
-      <c r="N209" s="6">
-        <v>0</v>
-      </c>
-      <c r="O209" s="6">
-        <v>0</v>
-      </c>
-      <c r="P209" s="6">
-        <v>526500</v>
-      </c>
-      <c r="Q209" s="6">
-        <v>0</v>
-      </c>
-      <c r="R209" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="4">
-        <v>3700</v>
-      </c>
-      <c r="B210" s="4">
-        <v>1723</v>
-      </c>
-      <c r="C210" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E210" s="6">
-        <v>367700</v>
-      </c>
-      <c r="F210" s="6">
-        <v>0</v>
-      </c>
-      <c r="G210" s="6">
-        <v>0</v>
-      </c>
-      <c r="H210" s="6">
-        <v>0</v>
-      </c>
-      <c r="I210" s="6">
-        <v>0</v>
-      </c>
-      <c r="J210" s="6">
-        <v>0</v>
-      </c>
-      <c r="K210" s="6">
-        <v>0</v>
-      </c>
-      <c r="L210" s="6">
-        <v>0</v>
-      </c>
-      <c r="M210" s="6">
-        <v>0</v>
-      </c>
-      <c r="N210" s="6">
-        <v>0</v>
-      </c>
-      <c r="O210" s="6">
-        <v>0</v>
-      </c>
-      <c r="P210" s="6">
-        <v>367700</v>
-      </c>
-      <c r="Q210" s="6">
-        <v>0</v>
-      </c>
-      <c r="R210" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="4">
-        <v>3701</v>
-      </c>
-      <c r="B211" s="4">
-        <v>1724</v>
-      </c>
-      <c r="C211" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="6">
-        <v>583200</v>
-      </c>
-      <c r="F211" s="6">
-        <v>0</v>
-      </c>
-      <c r="G211" s="6">
-        <v>0</v>
-      </c>
-      <c r="H211" s="6">
-        <v>0</v>
-      </c>
-      <c r="I211" s="6">
-        <v>0</v>
-      </c>
-      <c r="J211" s="6">
-        <v>0</v>
-      </c>
-      <c r="K211" s="6">
-        <v>0</v>
-      </c>
-      <c r="L211" s="6">
-        <v>0</v>
-      </c>
-      <c r="M211" s="6">
-        <v>0</v>
-      </c>
-      <c r="N211" s="6">
-        <v>0</v>
-      </c>
-      <c r="O211" s="6">
-        <v>0</v>
-      </c>
-      <c r="P211" s="6">
-        <v>583200</v>
-      </c>
-      <c r="Q211" s="6">
-        <v>0</v>
-      </c>
-      <c r="R211" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="4">
-        <v>3702</v>
-      </c>
-      <c r="B212" s="4">
-        <v>1725</v>
-      </c>
-      <c r="C212" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E212" s="6">
-        <v>531200</v>
-      </c>
-      <c r="F212" s="6">
-        <v>0</v>
-      </c>
-      <c r="G212" s="6">
-        <v>0</v>
-      </c>
-      <c r="H212" s="6">
-        <v>0</v>
-      </c>
-      <c r="I212" s="6">
-        <v>0</v>
-      </c>
-      <c r="J212" s="6">
-        <v>0</v>
-      </c>
-      <c r="K212" s="6">
-        <v>0</v>
-      </c>
-      <c r="L212" s="6">
-        <v>0</v>
-      </c>
-      <c r="M212" s="6">
-        <v>0</v>
-      </c>
-      <c r="N212" s="6">
-        <v>0</v>
-      </c>
-      <c r="O212" s="6">
-        <v>0</v>
-      </c>
-      <c r="P212" s="6">
-        <v>531200</v>
-      </c>
-      <c r="Q212" s="6">
-        <v>0</v>
-      </c>
-      <c r="R212" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="4">
-        <v>3703</v>
-      </c>
-      <c r="B213" s="4">
-        <v>1726</v>
-      </c>
-      <c r="C213" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E213" s="6">
-        <v>550300</v>
-      </c>
-      <c r="F213" s="6">
-        <v>0</v>
-      </c>
-      <c r="G213" s="6">
-        <v>0</v>
-      </c>
-      <c r="H213" s="6">
-        <v>0</v>
-      </c>
-      <c r="I213" s="6">
-        <v>0</v>
-      </c>
-      <c r="J213" s="6">
-        <v>0</v>
-      </c>
-      <c r="K213" s="6">
-        <v>0</v>
-      </c>
-      <c r="L213" s="6">
-        <v>0</v>
-      </c>
-      <c r="M213" s="6">
-        <v>0</v>
-      </c>
-      <c r="N213" s="6">
-        <v>0</v>
-      </c>
-      <c r="O213" s="6">
-        <v>0</v>
-      </c>
-      <c r="P213" s="6">
-        <v>550300</v>
-      </c>
-      <c r="Q213" s="6">
-        <v>0</v>
-      </c>
-      <c r="R213" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="4">
-        <v>3704</v>
-      </c>
-      <c r="B214" s="4">
-        <v>1727</v>
-      </c>
-      <c r="C214" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E214" s="6">
-        <v>467200</v>
-      </c>
-      <c r="F214" s="6">
-        <v>0</v>
-      </c>
-      <c r="G214" s="6">
-        <v>0</v>
-      </c>
-      <c r="H214" s="6">
-        <v>0</v>
-      </c>
-      <c r="I214" s="6">
-        <v>0</v>
-      </c>
-      <c r="J214" s="6">
-        <v>0</v>
-      </c>
-      <c r="K214" s="6">
-        <v>0</v>
-      </c>
-      <c r="L214" s="6">
-        <v>0</v>
-      </c>
-      <c r="M214" s="6">
-        <v>0</v>
-      </c>
-      <c r="N214" s="6">
-        <v>0</v>
-      </c>
-      <c r="O214" s="6">
-        <v>0</v>
-      </c>
-      <c r="P214" s="6">
-        <v>467200</v>
-      </c>
-      <c r="Q214" s="6">
-        <v>0</v>
-      </c>
-      <c r="R214" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="4">
-        <v>3705</v>
-      </c>
-      <c r="B215" s="4">
-        <v>1728</v>
-      </c>
-      <c r="C215" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E215" s="6">
-        <v>760000</v>
-      </c>
-      <c r="F215" s="6">
-        <v>0</v>
-      </c>
-      <c r="G215" s="6">
-        <v>0</v>
-      </c>
-      <c r="H215" s="6">
-        <v>0</v>
-      </c>
-      <c r="I215" s="6">
-        <v>0</v>
-      </c>
-      <c r="J215" s="6">
-        <v>0</v>
-      </c>
-      <c r="K215" s="6">
-        <v>0</v>
-      </c>
-      <c r="L215" s="6">
-        <v>0</v>
-      </c>
-      <c r="M215" s="6">
-        <v>0</v>
-      </c>
-      <c r="N215" s="6">
-        <v>0</v>
-      </c>
-      <c r="O215" s="6">
-        <v>0</v>
-      </c>
-      <c r="P215" s="6">
-        <v>760000</v>
-      </c>
-      <c r="Q215" s="6">
-        <v>0</v>
-      </c>
-      <c r="R215" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="4">
-        <v>3684</v>
-      </c>
-      <c r="B216" s="4">
-        <v>1707</v>
-      </c>
-      <c r="C216" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E216" s="6">
-        <v>526500</v>
-      </c>
-      <c r="F216" s="6">
-        <v>0</v>
-      </c>
-      <c r="G216" s="6">
-        <v>0</v>
-      </c>
-      <c r="H216" s="6">
-        <v>0</v>
-      </c>
-      <c r="I216" s="6">
-        <v>0</v>
-      </c>
-      <c r="J216" s="6">
-        <v>0</v>
-      </c>
-      <c r="K216" s="6">
-        <v>0</v>
-      </c>
-      <c r="L216" s="6">
-        <v>0</v>
-      </c>
-      <c r="M216" s="6">
-        <v>0</v>
-      </c>
-      <c r="N216" s="6">
-        <v>0</v>
-      </c>
-      <c r="O216" s="6">
-        <v>0</v>
-      </c>
-      <c r="P216" s="6">
-        <v>526500</v>
-      </c>
-      <c r="Q216" s="6">
-        <v>0</v>
-      </c>
-      <c r="R216" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="4">
-        <v>3685</v>
-      </c>
-      <c r="B217" s="4">
-        <v>1708</v>
-      </c>
-      <c r="C217" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E217" s="6">
-        <v>506100</v>
-      </c>
-      <c r="F217" s="6">
-        <v>0</v>
-      </c>
-      <c r="G217" s="6">
-        <v>0</v>
-      </c>
-      <c r="H217" s="6">
-        <v>0</v>
-      </c>
-      <c r="I217" s="6">
-        <v>0</v>
-      </c>
-      <c r="J217" s="6">
-        <v>0</v>
-      </c>
-      <c r="K217" s="6">
-        <v>0</v>
-      </c>
-      <c r="L217" s="6">
-        <v>0</v>
-      </c>
-      <c r="M217" s="6">
-        <v>0</v>
-      </c>
-      <c r="N217" s="6">
-        <v>0</v>
-      </c>
-      <c r="O217" s="6">
-        <v>0</v>
-      </c>
-      <c r="P217" s="6">
-        <v>506100</v>
-      </c>
-      <c r="Q217" s="6">
-        <v>0</v>
-      </c>
-      <c r="R217" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="4">
-        <v>3686</v>
-      </c>
-      <c r="B218" s="4">
-        <v>1709</v>
-      </c>
-      <c r="C218" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E218" s="6">
-        <v>377700</v>
-      </c>
-      <c r="F218" s="6">
-        <v>0</v>
-      </c>
-      <c r="G218" s="6">
-        <v>0</v>
-      </c>
-      <c r="H218" s="6">
-        <v>0</v>
-      </c>
-      <c r="I218" s="6">
-        <v>0</v>
-      </c>
-      <c r="J218" s="6">
-        <v>0</v>
-      </c>
-      <c r="K218" s="6">
-        <v>0</v>
-      </c>
-      <c r="L218" s="6">
-        <v>0</v>
-      </c>
-      <c r="M218" s="6">
-        <v>0</v>
-      </c>
-      <c r="N218" s="6">
-        <v>0</v>
-      </c>
-      <c r="O218" s="6">
-        <v>0</v>
-      </c>
-      <c r="P218" s="6">
-        <v>377700</v>
-      </c>
-      <c r="Q218" s="6">
-        <v>0</v>
-      </c>
-      <c r="R218" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="4">
-        <v>3688</v>
-      </c>
-      <c r="B219" s="4">
-        <v>1711</v>
-      </c>
-      <c r="C219" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E219" s="6">
-        <v>366000</v>
-      </c>
-      <c r="F219" s="6">
-        <v>0</v>
-      </c>
-      <c r="G219" s="6">
-        <v>0</v>
-      </c>
-      <c r="H219" s="6">
-        <v>0</v>
-      </c>
-      <c r="I219" s="6">
-        <v>0</v>
-      </c>
-      <c r="J219" s="6">
-        <v>0</v>
-      </c>
-      <c r="K219" s="6">
-        <v>0</v>
-      </c>
-      <c r="L219" s="6">
-        <v>0</v>
-      </c>
-      <c r="M219" s="6">
-        <v>0</v>
-      </c>
-      <c r="N219" s="6">
-        <v>0</v>
-      </c>
-      <c r="O219" s="6">
-        <v>0</v>
-      </c>
-      <c r="P219" s="6">
-        <v>366000</v>
-      </c>
-      <c r="Q219" s="6">
-        <v>0</v>
-      </c>
-      <c r="R219" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="4">
-        <v>3689</v>
-      </c>
-      <c r="B220" s="4">
-        <v>1712</v>
-      </c>
-      <c r="C220" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E220" s="6">
-        <v>319500</v>
-      </c>
-      <c r="F220" s="6">
-        <v>0</v>
-      </c>
-      <c r="G220" s="6">
-        <v>0</v>
-      </c>
-      <c r="H220" s="6">
-        <v>0</v>
-      </c>
-      <c r="I220" s="6">
-        <v>0</v>
-      </c>
-      <c r="J220" s="6">
-        <v>0</v>
-      </c>
-      <c r="K220" s="6">
-        <v>0</v>
-      </c>
-      <c r="L220" s="6">
-        <v>0</v>
-      </c>
-      <c r="M220" s="6">
-        <v>0</v>
-      </c>
-      <c r="N220" s="6">
-        <v>0</v>
-      </c>
-      <c r="O220" s="6">
-        <v>0</v>
-      </c>
-      <c r="P220" s="6">
-        <v>319500</v>
-      </c>
-      <c r="Q220" s="6">
-        <v>0</v>
-      </c>
-      <c r="R220" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="4">
-        <v>3690</v>
-      </c>
-      <c r="B221" s="4">
-        <v>1713</v>
-      </c>
-      <c r="C221" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E221" s="6">
-        <v>198000</v>
-      </c>
-      <c r="F221" s="6">
-        <v>0</v>
-      </c>
-      <c r="G221" s="6">
-        <v>0</v>
-      </c>
-      <c r="H221" s="6">
-        <v>0</v>
-      </c>
-      <c r="I221" s="6">
-        <v>0</v>
-      </c>
-      <c r="J221" s="6">
-        <v>0</v>
-      </c>
-      <c r="K221" s="6">
-        <v>0</v>
-      </c>
-      <c r="L221" s="6">
-        <v>0</v>
-      </c>
-      <c r="M221" s="6">
-        <v>0</v>
-      </c>
-      <c r="N221" s="6">
-        <v>0</v>
-      </c>
-      <c r="O221" s="6">
-        <v>0</v>
-      </c>
-      <c r="P221" s="6">
-        <v>198000</v>
-      </c>
-      <c r="Q221" s="6">
-        <v>0</v>
-      </c>
-      <c r="R221" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="4">
-        <v>3691</v>
-      </c>
-      <c r="B222" s="4">
-        <v>1714</v>
-      </c>
-      <c r="C222" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E222" s="6">
-        <v>394300</v>
-      </c>
-      <c r="F222" s="6">
-        <v>0</v>
-      </c>
-      <c r="G222" s="6">
-        <v>0</v>
-      </c>
-      <c r="H222" s="6">
-        <v>0</v>
-      </c>
-      <c r="I222" s="6">
-        <v>0</v>
-      </c>
-      <c r="J222" s="6">
-        <v>0</v>
-      </c>
-      <c r="K222" s="6">
-        <v>0</v>
-      </c>
-      <c r="L222" s="6">
-        <v>0</v>
-      </c>
-      <c r="M222" s="6">
-        <v>0</v>
-      </c>
-      <c r="N222" s="6">
-        <v>0</v>
-      </c>
-      <c r="O222" s="6">
-        <v>0</v>
-      </c>
-      <c r="P222" s="6">
-        <v>394300</v>
-      </c>
-      <c r="Q222" s="6">
-        <v>0</v>
-      </c>
-      <c r="R222" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="4">
-        <v>3692</v>
-      </c>
-      <c r="B223" s="4">
-        <v>1715</v>
-      </c>
-      <c r="C223" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E223" s="6">
-        <v>382300</v>
-      </c>
-      <c r="F223" s="6">
-        <v>0</v>
-      </c>
-      <c r="G223" s="6">
-        <v>0</v>
-      </c>
-      <c r="H223" s="6">
-        <v>0</v>
-      </c>
-      <c r="I223" s="6">
-        <v>0</v>
-      </c>
-      <c r="J223" s="6">
-        <v>0</v>
-      </c>
-      <c r="K223" s="6">
-        <v>0</v>
-      </c>
-      <c r="L223" s="6">
-        <v>0</v>
-      </c>
-      <c r="M223" s="6">
-        <v>0</v>
-      </c>
-      <c r="N223" s="6">
-        <v>0</v>
-      </c>
-      <c r="O223" s="6">
-        <v>0</v>
-      </c>
-      <c r="P223" s="6">
-        <v>382300</v>
-      </c>
-      <c r="Q223" s="6">
-        <v>0</v>
-      </c>
-      <c r="R223" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="4">
-        <v>3693</v>
-      </c>
-      <c r="B224" s="4">
-        <v>1716</v>
-      </c>
-      <c r="C224" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E224" s="6">
-        <v>0</v>
-      </c>
-      <c r="F224" s="6">
-        <v>0</v>
-      </c>
-      <c r="G224" s="6">
-        <v>0</v>
-      </c>
-      <c r="H224" s="6">
-        <v>0</v>
-      </c>
-      <c r="I224" s="6">
-        <v>81000</v>
-      </c>
-      <c r="J224" s="6">
-        <v>0</v>
-      </c>
-      <c r="K224" s="6">
-        <v>0</v>
-      </c>
-      <c r="L224" s="6">
-        <v>0</v>
-      </c>
-      <c r="M224" s="6">
-        <v>0</v>
-      </c>
-      <c r="N224" s="6">
-        <v>0</v>
-      </c>
-      <c r="O224" s="6">
-        <v>0</v>
-      </c>
-      <c r="P224" s="6">
-        <v>81000</v>
-      </c>
-      <c r="Q224" s="6">
-        <v>0</v>
-      </c>
-      <c r="R224" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="4">
-        <v>3694</v>
-      </c>
-      <c r="B225" s="4">
-        <v>1717</v>
-      </c>
-      <c r="C225" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E225" s="6">
-        <v>198000</v>
-      </c>
-      <c r="F225" s="6">
-        <v>0</v>
-      </c>
-      <c r="G225" s="6">
-        <v>0</v>
-      </c>
-      <c r="H225" s="6">
-        <v>0</v>
-      </c>
-      <c r="I225" s="6">
-        <v>0</v>
-      </c>
-      <c r="J225" s="6">
-        <v>0</v>
-      </c>
-      <c r="K225" s="6">
-        <v>0</v>
-      </c>
-      <c r="L225" s="6">
-        <v>0</v>
-      </c>
-      <c r="M225" s="6">
-        <v>0</v>
-      </c>
-      <c r="N225" s="6">
-        <v>0</v>
-      </c>
-      <c r="O225" s="6">
-        <v>0</v>
-      </c>
-      <c r="P225" s="6">
-        <v>198000</v>
-      </c>
-      <c r="Q225" s="6">
-        <v>0</v>
-      </c>
-      <c r="R225" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="4">
-        <v>3674</v>
-      </c>
-      <c r="B226" s="4">
-        <v>1697</v>
-      </c>
-      <c r="C226" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E226" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F226" s="6">
-        <v>0</v>
-      </c>
-      <c r="G226" s="6">
-        <v>0</v>
-      </c>
-      <c r="H226" s="6">
-        <v>0</v>
-      </c>
-      <c r="I226" s="6">
-        <v>0</v>
-      </c>
-      <c r="J226" s="6">
-        <v>0</v>
-      </c>
-      <c r="K226" s="6">
-        <v>0</v>
-      </c>
-      <c r="L226" s="6">
-        <v>0</v>
-      </c>
-      <c r="M226" s="6">
-        <v>0</v>
-      </c>
-      <c r="N226" s="6">
-        <v>0</v>
-      </c>
-      <c r="O226" s="6">
-        <v>0</v>
-      </c>
-      <c r="P226" s="6">
-        <v>100000</v>
-      </c>
-      <c r="Q226" s="6">
-        <v>0</v>
-      </c>
-      <c r="R226" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="4">
-        <v>3675</v>
-      </c>
-      <c r="B227" s="4">
-        <v>1698</v>
-      </c>
-      <c r="C227" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E227" s="6">
-        <v>1133766</v>
-      </c>
-      <c r="F227" s="6">
-        <v>0</v>
-      </c>
-      <c r="G227" s="6">
-        <v>0</v>
-      </c>
-      <c r="H227" s="6">
-        <v>0</v>
-      </c>
-      <c r="I227" s="6">
-        <v>0</v>
-      </c>
-      <c r="J227" s="6">
-        <v>0</v>
-      </c>
-      <c r="K227" s="6">
-        <v>0</v>
-      </c>
-      <c r="L227" s="6">
-        <v>0</v>
-      </c>
-      <c r="M227" s="6">
-        <v>0</v>
-      </c>
-      <c r="N227" s="6">
-        <v>0</v>
-      </c>
-      <c r="O227" s="6">
-        <v>0</v>
-      </c>
-      <c r="P227" s="6">
-        <v>1133766</v>
-      </c>
-      <c r="Q227" s="6">
-        <v>0</v>
-      </c>
-      <c r="R227" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="4">
-        <v>3676</v>
-      </c>
-      <c r="B228" s="4">
-        <v>1699</v>
-      </c>
-      <c r="C228" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E228" s="6">
-        <v>0</v>
-      </c>
-      <c r="F228" s="6">
-        <v>0</v>
-      </c>
-      <c r="G228" s="6">
-        <v>0</v>
-      </c>
-      <c r="H228" s="6">
-        <v>0</v>
-      </c>
-      <c r="I228" s="6">
-        <v>113000</v>
-      </c>
-      <c r="J228" s="6">
-        <v>0</v>
-      </c>
-      <c r="K228" s="6">
-        <v>0</v>
-      </c>
-      <c r="L228" s="6">
-        <v>0</v>
-      </c>
-      <c r="M228" s="6">
-        <v>0</v>
-      </c>
-      <c r="N228" s="6">
-        <v>0</v>
-      </c>
-      <c r="O228" s="6">
-        <v>0</v>
-      </c>
-      <c r="P228" s="6">
-        <v>113000</v>
-      </c>
-      <c r="Q228" s="6">
-        <v>0</v>
-      </c>
-      <c r="R228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="4">
-        <v>3677</v>
-      </c>
-      <c r="B229" s="4">
-        <v>1700</v>
-      </c>
-      <c r="C229" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E229" s="6">
-        <v>518300</v>
-      </c>
-      <c r="F229" s="6">
-        <v>0</v>
-      </c>
-      <c r="G229" s="6">
-        <v>0</v>
-      </c>
-      <c r="H229" s="6">
-        <v>0</v>
-      </c>
-      <c r="I229" s="6">
-        <v>0</v>
-      </c>
-      <c r="J229" s="6">
-        <v>0</v>
-      </c>
-      <c r="K229" s="6">
-        <v>0</v>
-      </c>
-      <c r="L229" s="6">
-        <v>0</v>
-      </c>
-      <c r="M229" s="6">
-        <v>0</v>
-      </c>
-      <c r="N229" s="6">
-        <v>0</v>
-      </c>
-      <c r="O229" s="6">
-        <v>0</v>
-      </c>
-      <c r="P229" s="6">
-        <v>518300</v>
-      </c>
-      <c r="Q229" s="6">
-        <v>0</v>
-      </c>
-      <c r="R229" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="4">
-        <v>3678</v>
-      </c>
-      <c r="B230" s="4">
-        <v>1701</v>
-      </c>
-      <c r="C230" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E230" s="6">
-        <v>0</v>
-      </c>
-      <c r="F230" s="6">
-        <v>0</v>
-      </c>
-      <c r="G230" s="6">
-        <v>0</v>
-      </c>
-      <c r="H230" s="6">
-        <v>0</v>
-      </c>
-      <c r="I230" s="6">
-        <v>74000</v>
-      </c>
-      <c r="J230" s="6">
-        <v>0</v>
-      </c>
-      <c r="K230" s="6">
-        <v>0</v>
-      </c>
-      <c r="L230" s="6">
-        <v>0</v>
-      </c>
-      <c r="M230" s="6">
-        <v>0</v>
-      </c>
-      <c r="N230" s="6">
-        <v>0</v>
-      </c>
-      <c r="O230" s="6">
-        <v>0</v>
-      </c>
-      <c r="P230" s="6">
-        <v>74000</v>
-      </c>
-      <c r="Q230" s="6">
-        <v>0</v>
-      </c>
-      <c r="R230" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="4">
-        <v>3679</v>
-      </c>
-      <c r="B231" s="4">
-        <v>1702</v>
-      </c>
-      <c r="C231" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="6">
-        <v>461500</v>
-      </c>
-      <c r="F231" s="6">
-        <v>0</v>
-      </c>
-      <c r="G231" s="6">
-        <v>0</v>
-      </c>
-      <c r="H231" s="6">
-        <v>0</v>
-      </c>
-      <c r="I231" s="6">
-        <v>0</v>
-      </c>
-      <c r="J231" s="6">
-        <v>0</v>
-      </c>
-      <c r="K231" s="6">
-        <v>0</v>
-      </c>
-      <c r="L231" s="6">
-        <v>0</v>
-      </c>
-      <c r="M231" s="6">
-        <v>0</v>
-      </c>
-      <c r="N231" s="6">
-        <v>0</v>
-      </c>
-      <c r="O231" s="6">
-        <v>0</v>
-      </c>
-      <c r="P231" s="6">
-        <v>461500</v>
-      </c>
-      <c r="Q231" s="6">
-        <v>0</v>
-      </c>
-      <c r="R231" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="4">
-        <v>3680</v>
-      </c>
-      <c r="B232" s="4">
-        <v>1703</v>
-      </c>
-      <c r="C232" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" s="6">
-        <v>0</v>
-      </c>
-      <c r="F232" s="6">
-        <v>0</v>
-      </c>
-      <c r="G232" s="6">
-        <v>0</v>
-      </c>
-      <c r="H232" s="6">
-        <v>0</v>
-      </c>
-      <c r="I232" s="6">
-        <v>0</v>
-      </c>
-      <c r="J232" s="6">
-        <v>0</v>
-      </c>
-      <c r="K232" s="6">
-        <v>0</v>
-      </c>
-      <c r="L232" s="6">
-        <v>0</v>
-      </c>
-      <c r="M232" s="6">
-        <v>903700</v>
-      </c>
-      <c r="N232" s="6">
-        <v>0</v>
-      </c>
-      <c r="O232" s="6">
-        <v>0</v>
-      </c>
-      <c r="P232" s="6">
-        <v>903700</v>
-      </c>
-      <c r="Q232" s="6">
-        <v>0</v>
-      </c>
-      <c r="R232" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="4">
-        <v>3681</v>
-      </c>
-      <c r="B233" s="4">
-        <v>1704</v>
-      </c>
-      <c r="C233" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E233" s="6">
-        <v>460500</v>
-      </c>
-      <c r="F233" s="6">
-        <v>0</v>
-      </c>
-      <c r="G233" s="6">
-        <v>0</v>
-      </c>
-      <c r="H233" s="6">
-        <v>0</v>
-      </c>
-      <c r="I233" s="6">
-        <v>0</v>
-      </c>
-      <c r="J233" s="6">
-        <v>0</v>
-      </c>
-      <c r="K233" s="6">
-        <v>0</v>
-      </c>
-      <c r="L233" s="6">
-        <v>0</v>
-      </c>
-      <c r="M233" s="6">
-        <v>0</v>
-      </c>
-      <c r="N233" s="6">
-        <v>0</v>
-      </c>
-      <c r="O233" s="6">
-        <v>0</v>
-      </c>
-      <c r="P233" s="6">
-        <v>460500</v>
-      </c>
-      <c r="Q233" s="6">
-        <v>0</v>
-      </c>
-      <c r="R233" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="4">
-        <v>3682</v>
-      </c>
-      <c r="B234" s="4">
-        <v>1705</v>
-      </c>
-      <c r="C234" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E234" s="6">
-        <v>432700</v>
-      </c>
-      <c r="F234" s="6">
-        <v>0</v>
-      </c>
-      <c r="G234" s="6">
-        <v>0</v>
-      </c>
-      <c r="H234" s="6">
-        <v>0</v>
-      </c>
-      <c r="I234" s="6">
-        <v>0</v>
-      </c>
-      <c r="J234" s="6">
-        <v>0</v>
-      </c>
-      <c r="K234" s="6">
-        <v>0</v>
-      </c>
-      <c r="L234" s="6">
-        <v>0</v>
-      </c>
-      <c r="M234" s="6">
-        <v>0</v>
-      </c>
-      <c r="N234" s="6">
-        <v>0</v>
-      </c>
-      <c r="O234" s="6">
-        <v>0</v>
-      </c>
-      <c r="P234" s="6">
-        <v>432700</v>
-      </c>
-      <c r="Q234" s="6">
-        <v>0</v>
-      </c>
-      <c r="R234" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="4">
-        <v>3683</v>
-      </c>
-      <c r="B235" s="4">
-        <v>1706</v>
-      </c>
-      <c r="C235" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E235" s="6">
-        <v>443100</v>
-      </c>
-      <c r="F235" s="6">
-        <v>0</v>
-      </c>
-      <c r="G235" s="6">
-        <v>0</v>
-      </c>
-      <c r="H235" s="6">
-        <v>0</v>
-      </c>
-      <c r="I235" s="6">
-        <v>0</v>
-      </c>
-      <c r="J235" s="6">
-        <v>0</v>
-      </c>
-      <c r="K235" s="6">
-        <v>0</v>
-      </c>
-      <c r="L235" s="6">
-        <v>0</v>
-      </c>
-      <c r="M235" s="6">
-        <v>0</v>
-      </c>
-      <c r="N235" s="6">
-        <v>0</v>
-      </c>
-      <c r="O235" s="6">
-        <v>0</v>
-      </c>
-      <c r="P235" s="6">
-        <v>443100</v>
-      </c>
-      <c r="Q235" s="6">
-        <v>0</v>
-      </c>
-      <c r="R235" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="4">
-        <v>3667</v>
-      </c>
-      <c r="B236" s="4">
-        <v>1690</v>
-      </c>
-      <c r="C236" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E236" s="6">
-        <v>467500</v>
-      </c>
-      <c r="F236" s="6">
-        <v>0</v>
-      </c>
-      <c r="G236" s="6">
-        <v>0</v>
-      </c>
-      <c r="H236" s="6">
-        <v>0</v>
-      </c>
-      <c r="I236" s="6">
-        <v>0</v>
-      </c>
-      <c r="J236" s="6">
-        <v>0</v>
-      </c>
-      <c r="K236" s="6">
-        <v>0</v>
-      </c>
-      <c r="L236" s="6">
-        <v>0</v>
-      </c>
-      <c r="M236" s="6">
-        <v>0</v>
-      </c>
-      <c r="N236" s="6">
-        <v>0</v>
-      </c>
-      <c r="O236" s="6">
-        <v>0</v>
-      </c>
-      <c r="P236" s="6">
-        <v>467500</v>
-      </c>
-      <c r="Q236" s="6">
-        <v>0</v>
-      </c>
-      <c r="R236" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="4">
-        <v>3668</v>
-      </c>
-      <c r="B237" s="4">
-        <v>1691</v>
-      </c>
-      <c r="C237" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E237" s="6">
-        <v>487000</v>
-      </c>
-      <c r="F237" s="6">
-        <v>0</v>
-      </c>
-      <c r="G237" s="6">
-        <v>0</v>
-      </c>
-      <c r="H237" s="6">
-        <v>0</v>
-      </c>
-      <c r="I237" s="6">
-        <v>0</v>
-      </c>
-      <c r="J237" s="6">
-        <v>0</v>
-      </c>
-      <c r="K237" s="6">
-        <v>0</v>
-      </c>
-      <c r="L237" s="6">
-        <v>0</v>
-      </c>
-      <c r="M237" s="6">
-        <v>0</v>
-      </c>
-      <c r="N237" s="6">
-        <v>0</v>
-      </c>
-      <c r="O237" s="6">
-        <v>0</v>
-      </c>
-      <c r="P237" s="6">
-        <v>487000</v>
-      </c>
-      <c r="Q237" s="6">
-        <v>0</v>
-      </c>
-      <c r="R237" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="4">
-        <v>3669</v>
-      </c>
-      <c r="B238" s="4">
-        <v>1692</v>
-      </c>
-      <c r="C238" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E238" s="6">
-        <v>120000</v>
-      </c>
-      <c r="F238" s="6">
-        <v>0</v>
-      </c>
-      <c r="G238" s="6">
-        <v>0</v>
-      </c>
-      <c r="H238" s="6">
-        <v>0</v>
-      </c>
-      <c r="I238" s="6">
-        <v>0</v>
-      </c>
-      <c r="J238" s="6">
-        <v>0</v>
-      </c>
-      <c r="K238" s="6">
-        <v>0</v>
-      </c>
-      <c r="L238" s="6">
-        <v>0</v>
-      </c>
-      <c r="M238" s="6">
-        <v>0</v>
-      </c>
-      <c r="N238" s="6">
-        <v>0</v>
-      </c>
-      <c r="O238" s="6">
-        <v>0</v>
-      </c>
-      <c r="P238" s="6">
-        <v>120000</v>
-      </c>
-      <c r="Q238" s="6">
-        <v>0</v>
-      </c>
-      <c r="R238" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="4">
-        <v>3670</v>
-      </c>
-      <c r="B239" s="4">
-        <v>1693</v>
-      </c>
-      <c r="C239" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="6">
-        <v>642400</v>
-      </c>
-      <c r="F239" s="6">
-        <v>0</v>
-      </c>
-      <c r="G239" s="6">
-        <v>0</v>
-      </c>
-      <c r="H239" s="6">
-        <v>0</v>
-      </c>
-      <c r="I239" s="6">
-        <v>0</v>
-      </c>
-      <c r="J239" s="6">
-        <v>0</v>
-      </c>
-      <c r="K239" s="6">
-        <v>0</v>
-      </c>
-      <c r="L239" s="6">
-        <v>0</v>
-      </c>
-      <c r="M239" s="6">
-        <v>0</v>
-      </c>
-      <c r="N239" s="6">
-        <v>0</v>
-      </c>
-      <c r="O239" s="6">
-        <v>0</v>
-      </c>
-      <c r="P239" s="6">
-        <v>642400</v>
-      </c>
-      <c r="Q239" s="6">
-        <v>0</v>
-      </c>
-      <c r="R239" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="4">
-        <v>3671</v>
-      </c>
-      <c r="B240" s="4">
-        <v>1694</v>
-      </c>
-      <c r="C240" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E240" s="6">
-        <v>470400</v>
-      </c>
-      <c r="F240" s="6">
-        <v>0</v>
-      </c>
-      <c r="G240" s="6">
-        <v>0</v>
-      </c>
-      <c r="H240" s="6">
-        <v>0</v>
-      </c>
-      <c r="I240" s="6">
-        <v>0</v>
-      </c>
-      <c r="J240" s="6">
-        <v>0</v>
-      </c>
-      <c r="K240" s="6">
-        <v>0</v>
-      </c>
-      <c r="L240" s="6">
-        <v>0</v>
-      </c>
-      <c r="M240" s="6">
-        <v>0</v>
-      </c>
-      <c r="N240" s="6">
-        <v>0</v>
-      </c>
-      <c r="O240" s="6">
-        <v>0</v>
-      </c>
-      <c r="P240" s="6">
-        <v>470400</v>
-      </c>
-      <c r="Q240" s="6">
-        <v>0</v>
-      </c>
-      <c r="R240" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="4">
-        <v>3672</v>
-      </c>
-      <c r="B241" s="4">
-        <v>1695</v>
-      </c>
-      <c r="C241" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E241" s="6">
-        <v>313600</v>
-      </c>
-      <c r="F241" s="6">
-        <v>0</v>
-      </c>
-      <c r="G241" s="6">
-        <v>0</v>
-      </c>
-      <c r="H241" s="6">
-        <v>0</v>
-      </c>
-      <c r="I241" s="6">
-        <v>0</v>
-      </c>
-      <c r="J241" s="6">
-        <v>0</v>
-      </c>
-      <c r="K241" s="6">
-        <v>0</v>
-      </c>
-      <c r="L241" s="6">
-        <v>0</v>
-      </c>
-      <c r="M241" s="6">
-        <v>0</v>
-      </c>
-      <c r="N241" s="6">
-        <v>0</v>
-      </c>
-      <c r="O241" s="6">
-        <v>0</v>
-      </c>
-      <c r="P241" s="6">
-        <v>313600</v>
-      </c>
-      <c r="Q241" s="6">
-        <v>0</v>
-      </c>
-      <c r="R241" s="4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="4">
-        <v>3673</v>
-      </c>
-      <c r="B242" s="4">
-        <v>1696</v>
-      </c>
-      <c r="C242" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E242" s="6">
-        <v>353100</v>
-      </c>
-      <c r="F242" s="6">
-        <v>0</v>
-      </c>
-      <c r="G242" s="6">
-        <v>0</v>
-      </c>
-      <c r="H242" s="6">
-        <v>0</v>
-      </c>
-      <c r="I242" s="6">
-        <v>0</v>
-      </c>
-      <c r="J242" s="6">
-        <v>0</v>
-      </c>
-      <c r="K242" s="6">
-        <v>0</v>
-      </c>
-      <c r="L242" s="6">
-        <v>0</v>
-      </c>
-      <c r="M242" s="6">
-        <v>0</v>
-      </c>
-      <c r="N242" s="6">
-        <v>0</v>
-      </c>
-      <c r="O242" s="6">
-        <v>0</v>
-      </c>
-      <c r="P242" s="6">
-        <v>353100</v>
-      </c>
-      <c r="Q242" s="6">
-        <v>0</v>
-      </c>
-      <c r="R242" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="4">
-        <v>3652</v>
-      </c>
-      <c r="B243" s="4">
-        <v>1675</v>
-      </c>
-      <c r="C243" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E243" s="6">
-        <v>144000</v>
-      </c>
-      <c r="F243" s="6">
-        <v>0</v>
-      </c>
-      <c r="G243" s="6">
-        <v>0</v>
-      </c>
-      <c r="H243" s="6">
-        <v>0</v>
-      </c>
-      <c r="I243" s="6">
-        <v>0</v>
-      </c>
-      <c r="J243" s="6">
-        <v>0</v>
-      </c>
-      <c r="K243" s="6">
-        <v>0</v>
-      </c>
-      <c r="L243" s="6">
-        <v>0</v>
-      </c>
-      <c r="M243" s="6">
-        <v>0</v>
-      </c>
-      <c r="N243" s="6">
-        <v>0</v>
-      </c>
-      <c r="O243" s="6">
-        <v>0</v>
-      </c>
-      <c r="P243" s="6">
-        <v>144000</v>
-      </c>
-      <c r="Q243" s="6">
-        <v>0</v>
-      </c>
-      <c r="R243" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="4">
-        <v>3653</v>
-      </c>
-      <c r="B244" s="4">
-        <v>1676</v>
-      </c>
-      <c r="C244" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E244" s="6">
-        <v>424600</v>
-      </c>
-      <c r="F244" s="6">
-        <v>0</v>
-      </c>
-      <c r="G244" s="6">
-        <v>0</v>
-      </c>
-      <c r="H244" s="6">
-        <v>0</v>
-      </c>
-      <c r="I244" s="6">
-        <v>0</v>
-      </c>
-      <c r="J244" s="6">
-        <v>0</v>
-      </c>
-      <c r="K244" s="6">
-        <v>0</v>
-      </c>
-      <c r="L244" s="6">
-        <v>0</v>
-      </c>
-      <c r="M244" s="6">
-        <v>0</v>
-      </c>
-      <c r="N244" s="6">
-        <v>0</v>
-      </c>
-      <c r="O244" s="6">
-        <v>0</v>
-      </c>
-      <c r="P244" s="6">
-        <v>424600</v>
-      </c>
-      <c r="Q244" s="6">
-        <v>0</v>
-      </c>
-      <c r="R244" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="4">
-        <v>3654</v>
-      </c>
-      <c r="B245" s="4">
-        <v>1677</v>
-      </c>
-      <c r="C245" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E245" s="6">
-        <v>0</v>
-      </c>
-      <c r="F245" s="6">
-        <v>0</v>
-      </c>
-      <c r="G245" s="6">
-        <v>0</v>
-      </c>
-      <c r="H245" s="6">
-        <v>0</v>
-      </c>
-      <c r="I245" s="6">
-        <v>226000</v>
-      </c>
-      <c r="J245" s="6">
-        <v>0</v>
-      </c>
-      <c r="K245" s="6">
-        <v>0</v>
-      </c>
-      <c r="L245" s="6">
-        <v>0</v>
-      </c>
-      <c r="M245" s="6">
-        <v>0</v>
-      </c>
-      <c r="N245" s="6">
-        <v>0</v>
-      </c>
-      <c r="O245" s="6">
-        <v>0</v>
-      </c>
-      <c r="P245" s="6">
-        <v>226000</v>
-      </c>
-      <c r="Q245" s="6">
-        <v>0</v>
-      </c>
-      <c r="R245" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="4">
-        <v>3655</v>
-      </c>
-      <c r="B246" s="4">
-        <v>1678</v>
-      </c>
-      <c r="C246" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E246" s="6">
-        <v>447900</v>
-      </c>
-      <c r="F246" s="6">
-        <v>0</v>
-      </c>
-      <c r="G246" s="6">
-        <v>0</v>
-      </c>
-      <c r="H246" s="6">
-        <v>0</v>
-      </c>
-      <c r="I246" s="6">
-        <v>0</v>
-      </c>
-      <c r="J246" s="6">
-        <v>0</v>
-      </c>
-      <c r="K246" s="6">
-        <v>0</v>
-      </c>
-      <c r="L246" s="6">
-        <v>0</v>
-      </c>
-      <c r="M246" s="6">
-        <v>0</v>
-      </c>
-      <c r="N246" s="6">
-        <v>0</v>
-      </c>
-      <c r="O246" s="6">
-        <v>0</v>
-      </c>
-      <c r="P246" s="6">
-        <v>447900</v>
-      </c>
-      <c r="Q246" s="6">
-        <v>0</v>
-      </c>
-      <c r="R246" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="4">
-        <v>3656</v>
-      </c>
-      <c r="B247" s="4">
-        <v>1679</v>
-      </c>
-      <c r="C247" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E247" s="6">
-        <v>151900</v>
-      </c>
-      <c r="F247" s="6">
-        <v>0</v>
-      </c>
-      <c r="G247" s="6">
-        <v>0</v>
-      </c>
-      <c r="H247" s="6">
-        <v>0</v>
-      </c>
-      <c r="I247" s="6">
-        <v>0</v>
-      </c>
-      <c r="J247" s="6">
-        <v>0</v>
-      </c>
-      <c r="K247" s="6">
-        <v>0</v>
-      </c>
-      <c r="L247" s="6">
-        <v>0</v>
-      </c>
-      <c r="M247" s="6">
-        <v>0</v>
-      </c>
-      <c r="N247" s="6">
-        <v>0</v>
-      </c>
-      <c r="O247" s="6">
-        <v>0</v>
-      </c>
-      <c r="P247" s="6">
-        <v>151900</v>
-      </c>
-      <c r="Q247" s="6">
-        <v>0</v>
-      </c>
-      <c r="R247" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="4">
-        <v>3657</v>
-      </c>
-      <c r="B248" s="4">
-        <v>1680</v>
-      </c>
-      <c r="C248" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E248" s="6">
-        <v>232800</v>
-      </c>
-      <c r="F248" s="6">
-        <v>0</v>
-      </c>
-      <c r="G248" s="6">
-        <v>0</v>
-      </c>
-      <c r="H248" s="6">
-        <v>0</v>
-      </c>
-      <c r="I248" s="6">
-        <v>0</v>
-      </c>
-      <c r="J248" s="6">
-        <v>0</v>
-      </c>
-      <c r="K248" s="6">
-        <v>0</v>
-      </c>
-      <c r="L248" s="6">
-        <v>0</v>
-      </c>
-      <c r="M248" s="6">
-        <v>0</v>
-      </c>
-      <c r="N248" s="6">
-        <v>0</v>
-      </c>
-      <c r="O248" s="6">
-        <v>0</v>
-      </c>
-      <c r="P248" s="6">
-        <v>232800</v>
-      </c>
-      <c r="Q248" s="6">
-        <v>0</v>
-      </c>
-      <c r="R248" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="4">
-        <v>3658</v>
-      </c>
-      <c r="B249" s="4">
-        <v>1681</v>
-      </c>
-      <c r="C249" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="6">
-        <v>99540</v>
-      </c>
-      <c r="F249" s="6">
-        <v>0</v>
-      </c>
-      <c r="G249" s="6">
-        <v>0</v>
-      </c>
-      <c r="H249" s="6">
-        <v>0</v>
-      </c>
-      <c r="I249" s="6">
-        <v>0</v>
-      </c>
-      <c r="J249" s="6">
-        <v>0</v>
-      </c>
-      <c r="K249" s="6">
-        <v>0</v>
-      </c>
-      <c r="L249" s="6">
-        <v>0</v>
-      </c>
-      <c r="M249" s="6">
-        <v>0</v>
-      </c>
-      <c r="N249" s="6">
-        <v>0</v>
-      </c>
-      <c r="O249" s="6">
-        <v>0</v>
-      </c>
-      <c r="P249" s="6">
-        <v>99540</v>
-      </c>
-      <c r="Q249" s="6">
-        <v>0</v>
-      </c>
-      <c r="R249" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="4">
-        <v>3659</v>
-      </c>
-      <c r="B250" s="4">
-        <v>1682</v>
-      </c>
-      <c r="C250" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E250" s="6">
-        <v>523500</v>
-      </c>
-      <c r="F250" s="6">
-        <v>0</v>
-      </c>
-      <c r="G250" s="6">
-        <v>0</v>
-      </c>
-      <c r="H250" s="6">
-        <v>0</v>
-      </c>
-      <c r="I250" s="6">
-        <v>0</v>
-      </c>
-      <c r="J250" s="6">
-        <v>0</v>
-      </c>
-      <c r="K250" s="6">
-        <v>0</v>
-      </c>
-      <c r="L250" s="6">
-        <v>0</v>
-      </c>
-      <c r="M250" s="6">
-        <v>0</v>
-      </c>
-      <c r="N250" s="6">
-        <v>0</v>
-      </c>
-      <c r="O250" s="6">
-        <v>0</v>
-      </c>
-      <c r="P250" s="6">
-        <v>523500</v>
-      </c>
-      <c r="Q250" s="6">
-        <v>0</v>
-      </c>
-      <c r="R250" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="4">
-        <v>3660</v>
-      </c>
-      <c r="B251" s="4">
-        <v>1683</v>
-      </c>
-      <c r="C251" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E251" s="6">
-        <v>581400</v>
-      </c>
-      <c r="F251" s="6">
-        <v>0</v>
-      </c>
-      <c r="G251" s="6">
-        <v>0</v>
-      </c>
-      <c r="H251" s="6">
-        <v>0</v>
-      </c>
-      <c r="I251" s="6">
-        <v>0</v>
-      </c>
-      <c r="J251" s="6">
-        <v>0</v>
-      </c>
-      <c r="K251" s="6">
-        <v>0</v>
-      </c>
-      <c r="L251" s="6">
-        <v>0</v>
-      </c>
-      <c r="M251" s="6">
-        <v>0</v>
-      </c>
-      <c r="N251" s="6">
-        <v>0</v>
-      </c>
-      <c r="O251" s="6">
-        <v>0</v>
-      </c>
-      <c r="P251" s="6">
-        <v>581400</v>
-      </c>
-      <c r="Q251" s="6">
-        <v>0</v>
-      </c>
-      <c r="R251" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="4">
-        <v>3661</v>
-      </c>
-      <c r="B252" s="4">
-        <v>1684</v>
-      </c>
-      <c r="C252" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E252" s="6">
-        <v>99540</v>
-      </c>
-      <c r="F252" s="6">
-        <v>0</v>
-      </c>
-      <c r="G252" s="6">
-        <v>0</v>
-      </c>
-      <c r="H252" s="6">
-        <v>0</v>
-      </c>
-      <c r="I252" s="6">
-        <v>0</v>
-      </c>
-      <c r="J252" s="6">
-        <v>0</v>
-      </c>
-      <c r="K252" s="6">
-        <v>0</v>
-      </c>
-      <c r="L252" s="6">
-        <v>0</v>
-      </c>
-      <c r="M252" s="6">
-        <v>0</v>
-      </c>
-      <c r="N252" s="6">
-        <v>0</v>
-      </c>
-      <c r="O252" s="6">
-        <v>0</v>
-      </c>
-      <c r="P252" s="6">
-        <v>99540</v>
-      </c>
-      <c r="Q252" s="6">
-        <v>0</v>
-      </c>
-      <c r="R252" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="4">
-        <v>3662</v>
-      </c>
-      <c r="B253" s="4">
-        <v>1685</v>
-      </c>
-      <c r="C253" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E253" s="6">
-        <v>529800</v>
-      </c>
-      <c r="F253" s="6">
-        <v>0</v>
-      </c>
-      <c r="G253" s="6">
-        <v>0</v>
-      </c>
-      <c r="H253" s="6">
-        <v>0</v>
-      </c>
-      <c r="I253" s="6">
-        <v>0</v>
-      </c>
-      <c r="J253" s="6">
-        <v>0</v>
-      </c>
-      <c r="K253" s="6">
-        <v>0</v>
-      </c>
-      <c r="L253" s="6">
-        <v>0</v>
-      </c>
-      <c r="M253" s="6">
-        <v>0</v>
-      </c>
-      <c r="N253" s="6">
-        <v>0</v>
-      </c>
-      <c r="O253" s="6">
-        <v>0</v>
-      </c>
-      <c r="P253" s="6">
-        <v>529800</v>
-      </c>
-      <c r="Q253" s="6">
-        <v>0</v>
-      </c>
-      <c r="R253" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="4">
-        <v>3663</v>
-      </c>
-      <c r="B254" s="4">
-        <v>1686</v>
-      </c>
-      <c r="C254" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E254" s="6">
-        <v>448000</v>
-      </c>
-      <c r="F254" s="6">
-        <v>0</v>
-      </c>
-      <c r="G254" s="6">
-        <v>0</v>
-      </c>
-      <c r="H254" s="6">
-        <v>0</v>
-      </c>
-      <c r="I254" s="6">
-        <v>0</v>
-      </c>
-      <c r="J254" s="6">
-        <v>0</v>
-      </c>
-      <c r="K254" s="6">
-        <v>0</v>
-      </c>
-      <c r="L254" s="6">
-        <v>0</v>
-      </c>
-      <c r="M254" s="6">
-        <v>0</v>
-      </c>
-      <c r="N254" s="6">
-        <v>0</v>
-      </c>
-      <c r="O254" s="6">
-        <v>0</v>
-      </c>
-      <c r="P254" s="6">
-        <v>448000</v>
-      </c>
-      <c r="Q254" s="6">
-        <v>0</v>
-      </c>
-      <c r="R254" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="4">
-        <v>3664</v>
-      </c>
-      <c r="B255" s="4">
-        <v>1687</v>
-      </c>
-      <c r="C255" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E255" s="6">
-        <v>0</v>
-      </c>
-      <c r="F255" s="6">
-        <v>0</v>
-      </c>
-      <c r="G255" s="6">
-        <v>0</v>
-      </c>
-      <c r="H255" s="6">
-        <v>0</v>
-      </c>
-      <c r="I255" s="6">
-        <v>0</v>
-      </c>
-      <c r="J255" s="6">
-        <v>0</v>
-      </c>
-      <c r="K255" s="6">
-        <v>0</v>
-      </c>
-      <c r="L255" s="6">
-        <v>0</v>
-      </c>
-      <c r="M255" s="6">
-        <v>637300</v>
-      </c>
-      <c r="N255" s="6">
-        <v>0</v>
-      </c>
-      <c r="O255" s="6">
-        <v>0</v>
-      </c>
-      <c r="P255" s="6">
-        <v>637300</v>
-      </c>
-      <c r="Q255" s="6">
-        <v>0</v>
-      </c>
-      <c r="R255" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="4">
-        <v>3665</v>
-      </c>
-      <c r="B256" s="4">
-        <v>1688</v>
-      </c>
-      <c r="C256" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E256" s="6">
-        <v>0</v>
-      </c>
-      <c r="F256" s="6">
-        <v>0</v>
-      </c>
-      <c r="G256" s="6">
-        <v>0</v>
-      </c>
-      <c r="H256" s="6">
-        <v>0</v>
-      </c>
-      <c r="I256" s="6">
-        <v>0</v>
-      </c>
-      <c r="J256" s="6">
-        <v>0</v>
-      </c>
-      <c r="K256" s="6">
-        <v>0</v>
-      </c>
-      <c r="L256" s="6">
-        <v>0</v>
-      </c>
-      <c r="M256" s="6">
-        <v>385000</v>
-      </c>
-      <c r="N256" s="6">
-        <v>0</v>
-      </c>
-      <c r="O256" s="6">
-        <v>0</v>
-      </c>
-      <c r="P256" s="6">
-        <v>385000</v>
-      </c>
-      <c r="Q256" s="6">
-        <v>0</v>
-      </c>
-      <c r="R256" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="4">
-        <v>3666</v>
-      </c>
-      <c r="B257" s="4">
-        <v>1689</v>
-      </c>
-      <c r="C257" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E257" s="6">
-        <v>786383</v>
-      </c>
-      <c r="F257" s="6">
-        <v>0</v>
-      </c>
-      <c r="G257" s="6">
-        <v>0</v>
-      </c>
-      <c r="H257" s="6">
-        <v>0</v>
-      </c>
-      <c r="I257" s="6">
-        <v>0</v>
-      </c>
-      <c r="J257" s="6">
-        <v>0</v>
-      </c>
-      <c r="K257" s="6">
-        <v>0</v>
-      </c>
-      <c r="L257" s="6">
-        <v>0</v>
-      </c>
-      <c r="M257" s="6">
-        <v>0</v>
-      </c>
-      <c r="N257" s="6">
-        <v>0</v>
-      </c>
-      <c r="O257" s="6">
-        <v>0</v>
-      </c>
-      <c r="P257" s="6">
-        <v>786383</v>
-      </c>
-      <c r="Q257" s="6">
-        <v>0</v>
-      </c>
-      <c r="R257" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="4">
-        <v>3638</v>
-      </c>
-      <c r="B258" s="4">
-        <v>1661</v>
-      </c>
-      <c r="C258" s="5">
-        <v>45678</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E258" s="6">
-        <v>211500</v>
-      </c>
-      <c r="F258" s="6">
-        <v>0</v>
-      </c>
-      <c r="G258" s="6">
-        <v>0</v>
-      </c>
-      <c r="H258" s="6">
-        <v>0</v>
-      </c>
-      <c r="I258" s="6">
-        <v>0</v>
-      </c>
-      <c r="J258" s="6">
-        <v>0</v>
-      </c>
-      <c r="K258" s="6">
-        <v>0</v>
-      </c>
-      <c r="L258" s="6">
-        <v>0</v>
-      </c>
-      <c r="M258" s="6">
-        <v>0</v>
-      </c>
-      <c r="N258" s="6">
-        <v>0</v>
-      </c>
-      <c r="O258" s="6">
-        <v>0</v>
-      </c>
-      <c r="P258" s="6">
-        <v>211500</v>
-      </c>
-      <c r="Q258" s="6">
-        <v>0</v>
-      </c>
-      <c r="R258" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="4">
-        <v>3650</v>
-      </c>
-      <c r="B259" s="4">
-        <v>1673</v>
-      </c>
-      <c r="C259" s="5">
-        <v>45677</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E259" s="6">
-        <v>0</v>
-      </c>
-      <c r="F259" s="6">
-        <v>0</v>
-      </c>
-      <c r="G259" s="6">
-        <v>0</v>
-      </c>
-      <c r="H259" s="6">
-        <v>0</v>
-      </c>
-      <c r="I259" s="6">
-        <v>0</v>
-      </c>
-      <c r="J259" s="6">
-        <v>0</v>
-      </c>
-      <c r="K259" s="6">
-        <v>0</v>
-      </c>
-      <c r="L259" s="6">
-        <v>0</v>
-      </c>
-      <c r="M259" s="6">
-        <v>822604</v>
-      </c>
-      <c r="N259" s="6">
-        <v>0</v>
-      </c>
-      <c r="O259" s="6">
-        <v>0</v>
-      </c>
-      <c r="P259" s="6">
-        <v>822604</v>
-      </c>
-      <c r="Q259" s="6">
-        <v>0</v>
-      </c>
-      <c r="R259" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="4">
-        <v>3639</v>
-      </c>
-      <c r="B260" s="4">
-        <v>1662</v>
-      </c>
-      <c r="C260" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E260" s="6">
-        <v>247500</v>
-      </c>
-      <c r="F260" s="6">
-        <v>0</v>
-      </c>
-      <c r="G260" s="6">
-        <v>0</v>
-      </c>
-      <c r="H260" s="6">
-        <v>0</v>
-      </c>
-      <c r="I260" s="6">
-        <v>0</v>
-      </c>
-      <c r="J260" s="6">
-        <v>0</v>
-      </c>
-      <c r="K260" s="6">
-        <v>0</v>
-      </c>
-      <c r="L260" s="6">
-        <v>0</v>
-      </c>
-      <c r="M260" s="6">
-        <v>0</v>
-      </c>
-      <c r="N260" s="6">
-        <v>0</v>
-      </c>
-      <c r="O260" s="6">
-        <v>0</v>
-      </c>
-      <c r="P260" s="6">
-        <v>247500</v>
-      </c>
-      <c r="Q260" s="6">
-        <v>0</v>
-      </c>
-      <c r="R260" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="4">
-        <v>3640</v>
-      </c>
-      <c r="B261" s="4">
-        <v>1663</v>
-      </c>
-      <c r="C261" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E261" s="6">
-        <v>430240</v>
-      </c>
-      <c r="F261" s="6">
-        <v>0</v>
-      </c>
-      <c r="G261" s="6">
-        <v>0</v>
-      </c>
-      <c r="H261" s="6">
-        <v>0</v>
-      </c>
-      <c r="I261" s="6">
-        <v>0</v>
-      </c>
-      <c r="J261" s="6">
-        <v>0</v>
-      </c>
-      <c r="K261" s="6">
-        <v>0</v>
-      </c>
-      <c r="L261" s="6">
-        <v>0</v>
-      </c>
-      <c r="M261" s="6">
-        <v>0</v>
-      </c>
-      <c r="N261" s="6">
-        <v>0</v>
-      </c>
-      <c r="O261" s="6">
-        <v>0</v>
-      </c>
-      <c r="P261" s="6">
-        <v>430240</v>
-      </c>
-      <c r="Q261" s="6">
-        <v>0</v>
-      </c>
-      <c r="R261" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="4">
-        <v>3641</v>
-      </c>
-      <c r="B262" s="4">
-        <v>1664</v>
-      </c>
-      <c r="C262" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E262" s="6">
-        <v>413300</v>
-      </c>
-      <c r="F262" s="6">
-        <v>0</v>
-      </c>
-      <c r="G262" s="6">
-        <v>0</v>
-      </c>
-      <c r="H262" s="6">
-        <v>0</v>
-      </c>
-      <c r="I262" s="6">
-        <v>0</v>
-      </c>
-      <c r="J262" s="6">
-        <v>0</v>
-      </c>
-      <c r="K262" s="6">
-        <v>0</v>
-      </c>
-      <c r="L262" s="6">
-        <v>0</v>
-      </c>
-      <c r="M262" s="6">
-        <v>0</v>
-      </c>
-      <c r="N262" s="6">
-        <v>0</v>
-      </c>
-      <c r="O262" s="6">
-        <v>0</v>
-      </c>
-      <c r="P262" s="6">
-        <v>413300</v>
-      </c>
-      <c r="Q262" s="6">
-        <v>0</v>
-      </c>
-      <c r="R262" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="4">
-        <v>3642</v>
-      </c>
-      <c r="B263" s="4">
-        <v>1665</v>
-      </c>
-      <c r="C263" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E263" s="6">
-        <v>253100</v>
-      </c>
-      <c r="F263" s="6">
-        <v>0</v>
-      </c>
-      <c r="G263" s="6">
-        <v>0</v>
-      </c>
-      <c r="H263" s="6">
-        <v>0</v>
-      </c>
-      <c r="I263" s="6">
-        <v>0</v>
-      </c>
-      <c r="J263" s="6">
-        <v>0</v>
-      </c>
-      <c r="K263" s="6">
-        <v>0</v>
-      </c>
-      <c r="L263" s="6">
-        <v>0</v>
-      </c>
-      <c r="M263" s="6">
-        <v>0</v>
-      </c>
-      <c r="N263" s="6">
-        <v>0</v>
-      </c>
-      <c r="O263" s="6">
-        <v>0</v>
-      </c>
-      <c r="P263" s="6">
-        <v>253100</v>
-      </c>
-      <c r="Q263" s="6">
-        <v>0</v>
-      </c>
-      <c r="R263" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="4">
-        <v>3643</v>
-      </c>
-      <c r="B264" s="4">
-        <v>1666</v>
-      </c>
-      <c r="C264" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E264" s="6">
-        <v>258200</v>
-      </c>
-      <c r="F264" s="6">
-        <v>0</v>
-      </c>
-      <c r="G264" s="6">
-        <v>0</v>
-      </c>
-      <c r="H264" s="6">
-        <v>0</v>
-      </c>
-      <c r="I264" s="6">
-        <v>0</v>
-      </c>
-      <c r="J264" s="6">
-        <v>0</v>
-      </c>
-      <c r="K264" s="6">
-        <v>0</v>
-      </c>
-      <c r="L264" s="6">
-        <v>0</v>
-      </c>
-      <c r="M264" s="6">
-        <v>0</v>
-      </c>
-      <c r="N264" s="6">
-        <v>0</v>
-      </c>
-      <c r="O264" s="6">
-        <v>0</v>
-      </c>
-      <c r="P264" s="6">
-        <v>258200</v>
-      </c>
-      <c r="Q264" s="6">
-        <v>0</v>
-      </c>
-      <c r="R264" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="4">
-        <v>3644</v>
-      </c>
-      <c r="B265" s="4">
-        <v>1667</v>
-      </c>
-      <c r="C265" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E265" s="6">
-        <v>263100</v>
-      </c>
-      <c r="F265" s="6">
-        <v>0</v>
-      </c>
-      <c r="G265" s="6">
-        <v>0</v>
-      </c>
-      <c r="H265" s="6">
-        <v>0</v>
-      </c>
-      <c r="I265" s="6">
-        <v>0</v>
-      </c>
-      <c r="J265" s="6">
-        <v>0</v>
-      </c>
-      <c r="K265" s="6">
-        <v>0</v>
-      </c>
-      <c r="L265" s="6">
-        <v>0</v>
-      </c>
-      <c r="M265" s="6">
-        <v>0</v>
-      </c>
-      <c r="N265" s="6">
-        <v>0</v>
-      </c>
-      <c r="O265" s="6">
-        <v>0</v>
-      </c>
-      <c r="P265" s="6">
-        <v>263100</v>
-      </c>
-      <c r="Q265" s="6">
-        <v>0</v>
-      </c>
-      <c r="R265" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="4">
-        <v>3645</v>
-      </c>
-      <c r="B266" s="4">
-        <v>1668</v>
-      </c>
-      <c r="C266" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E266" s="6">
-        <v>488800</v>
-      </c>
-      <c r="F266" s="6">
-        <v>0</v>
-      </c>
-      <c r="G266" s="6">
-        <v>0</v>
-      </c>
-      <c r="H266" s="6">
-        <v>0</v>
-      </c>
-      <c r="I266" s="6">
-        <v>0</v>
-      </c>
-      <c r="J266" s="6">
-        <v>0</v>
-      </c>
-      <c r="K266" s="6">
-        <v>0</v>
-      </c>
-      <c r="L266" s="6">
-        <v>0</v>
-      </c>
-      <c r="M266" s="6">
-        <v>0</v>
-      </c>
-      <c r="N266" s="6">
-        <v>0</v>
-      </c>
-      <c r="O266" s="6">
-        <v>0</v>
-      </c>
-      <c r="P266" s="6">
-        <v>488800</v>
-      </c>
-      <c r="Q266" s="6">
-        <v>0</v>
-      </c>
-      <c r="R266" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="4">
-        <v>3646</v>
-      </c>
-      <c r="B267" s="4">
-        <v>1669</v>
-      </c>
-      <c r="C267" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E267" s="6">
-        <v>384100</v>
-      </c>
-      <c r="F267" s="6">
-        <v>0</v>
-      </c>
-      <c r="G267" s="6">
-        <v>0</v>
-      </c>
-      <c r="H267" s="6">
-        <v>0</v>
-      </c>
-      <c r="I267" s="6">
-        <v>0</v>
-      </c>
-      <c r="J267" s="6">
-        <v>0</v>
-      </c>
-      <c r="K267" s="6">
-        <v>0</v>
-      </c>
-      <c r="L267" s="6">
-        <v>0</v>
-      </c>
-      <c r="M267" s="6">
-        <v>0</v>
-      </c>
-      <c r="N267" s="6">
-        <v>0</v>
-      </c>
-      <c r="O267" s="6">
-        <v>0</v>
-      </c>
-      <c r="P267" s="6">
-        <v>384100</v>
-      </c>
-      <c r="Q267" s="6">
-        <v>0</v>
-      </c>
-      <c r="R267" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="4">
-        <v>3647</v>
-      </c>
-      <c r="B268" s="4">
-        <v>1670</v>
-      </c>
-      <c r="C268" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E268" s="6">
-        <v>252800</v>
-      </c>
-      <c r="F268" s="6">
-        <v>0</v>
-      </c>
-      <c r="G268" s="6">
-        <v>0</v>
-      </c>
-      <c r="H268" s="6">
-        <v>0</v>
-      </c>
-      <c r="I268" s="6">
-        <v>0</v>
-      </c>
-      <c r="J268" s="6">
-        <v>0</v>
-      </c>
-      <c r="K268" s="6">
-        <v>0</v>
-      </c>
-      <c r="L268" s="6">
-        <v>0</v>
-      </c>
-      <c r="M268" s="6">
-        <v>0</v>
-      </c>
-      <c r="N268" s="6">
-        <v>0</v>
-      </c>
-      <c r="O268" s="6">
-        <v>0</v>
-      </c>
-      <c r="P268" s="6">
-        <v>252800</v>
-      </c>
-      <c r="Q268" s="6">
-        <v>0</v>
-      </c>
-      <c r="R268" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="4">
-        <v>3648</v>
-      </c>
-      <c r="B269" s="4">
-        <v>1671</v>
-      </c>
-      <c r="C269" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E269" s="6">
-        <v>448000</v>
-      </c>
-      <c r="F269" s="6">
-        <v>0</v>
-      </c>
-      <c r="G269" s="6">
-        <v>0</v>
-      </c>
-      <c r="H269" s="6">
-        <v>0</v>
-      </c>
-      <c r="I269" s="6">
-        <v>0</v>
-      </c>
-      <c r="J269" s="6">
-        <v>0</v>
-      </c>
-      <c r="K269" s="6">
-        <v>0</v>
-      </c>
-      <c r="L269" s="6">
-        <v>0</v>
-      </c>
-      <c r="M269" s="6">
-        <v>0</v>
-      </c>
-      <c r="N269" s="6">
-        <v>0</v>
-      </c>
-      <c r="O269" s="6">
-        <v>0</v>
-      </c>
-      <c r="P269" s="6">
-        <v>448000</v>
-      </c>
-      <c r="Q269" s="6">
-        <v>0</v>
-      </c>
-      <c r="R269" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="4">
-        <v>3649</v>
-      </c>
-      <c r="B270" s="4">
-        <v>1672</v>
-      </c>
-      <c r="C270" s="5">
-        <v>45670</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E270" s="6">
-        <v>0</v>
-      </c>
-      <c r="F270" s="6">
-        <v>0</v>
-      </c>
-      <c r="G270" s="6">
-        <v>0</v>
-      </c>
-      <c r="H270" s="6">
-        <v>0</v>
-      </c>
-      <c r="I270" s="6">
-        <v>0</v>
-      </c>
-      <c r="J270" s="6">
-        <v>0</v>
-      </c>
-      <c r="K270" s="6">
-        <v>0</v>
-      </c>
-      <c r="L270" s="6">
-        <v>0</v>
-      </c>
-      <c r="M270" s="6">
-        <v>613800</v>
-      </c>
-      <c r="N270" s="6">
-        <v>0</v>
-      </c>
-      <c r="O270" s="6">
-        <v>0</v>
-      </c>
-      <c r="P270" s="6">
-        <v>613800</v>
-      </c>
-      <c r="Q270" s="6">
-        <v>0</v>
-      </c>
-      <c r="R270" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="4">
-        <v>3620</v>
-      </c>
-      <c r="B271" s="4">
-        <v>1643</v>
-      </c>
-      <c r="C271" s="5">
-        <v>45660</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E271" s="6">
-        <v>40500</v>
-      </c>
-      <c r="F271" s="6">
-        <v>0</v>
-      </c>
-      <c r="G271" s="6">
-        <v>0</v>
-      </c>
-      <c r="H271" s="6">
-        <v>0</v>
-      </c>
-      <c r="I271" s="6">
-        <v>0</v>
-      </c>
-      <c r="J271" s="6">
-        <v>0</v>
-      </c>
-      <c r="K271" s="6">
-        <v>0</v>
-      </c>
-      <c r="L271" s="6">
-        <v>0</v>
-      </c>
-      <c r="M271" s="6">
-        <v>0</v>
-      </c>
-      <c r="N271" s="6">
-        <v>0</v>
-      </c>
-      <c r="O271" s="6">
-        <v>0</v>
-      </c>
-      <c r="P271" s="6">
-        <v>40500</v>
-      </c>
-      <c r="Q271" s="6">
-        <v>0</v>
-      </c>
-      <c r="R271" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E272" s="6">
-        <v>121872246</v>
-      </c>
-      <c r="F272" s="6">
-        <v>0</v>
-      </c>
-      <c r="G272" s="6">
-        <v>0</v>
-      </c>
-      <c r="H272" s="6">
-        <v>3634150</v>
-      </c>
-      <c r="I272" s="6">
-        <v>3412000</v>
-      </c>
-      <c r="J272" s="6">
-        <v>0</v>
-      </c>
-      <c r="K272" s="6">
-        <v>0</v>
-      </c>
-      <c r="L272" s="6">
-        <v>0</v>
-      </c>
-      <c r="M272" s="6">
-        <v>4102804</v>
-      </c>
-      <c r="N272" s="6">
-        <v>0</v>
-      </c>
-      <c r="O272" s="6">
-        <v>0</v>
-      </c>
-      <c r="P272" s="6">
-        <v>133021200</v>
-      </c>
-      <c r="Q272" s="6">
-        <v>450000</v>
-      </c>
-      <c r="R272" s="4">
-        <v>14077</v>
+        <v>8292</v>
       </c>
     </row>
   </sheetData>
